--- a/data/data_2018_10_25/SemMapper-CDSMCodeMappings-DM_RF_HF_Dp-v1.0_23Oct2018_INSERM_Loc.xlsx
+++ b/data/data_2018_10_25/SemMapper-CDSMCodeMappings-DM_RF_HF_Dp-v1.0_23Oct2018_INSERM_Loc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions" sheetId="1" state="visible" r:id="rId2"/>
@@ -3580,103 +3580,103 @@
     <t xml:space="preserve">Continuous renal replacement therapy (procedure)</t>
   </si>
   <si>
+    <t xml:space="preserve">Z992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENAL DIALYSIS DEPENDENCE***. The codes designs renal dialyses dependency***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7L1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compensation for renal failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*** The codes designs renal dialyses dependency***,  ICD-9 --&gt; V4511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amputation of lower limb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amputation of lower limb (procedure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z89.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7L06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amputation of leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kidney transplantation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transplant of kidney (procedure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Njurtransplanterad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z94.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kidney transplant status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7B00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transplantation of kidney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognitive Behavioral Therapy (CBT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognitive behavioral therapy for psychosis (regime/therapy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8G13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognitive-behaviour therapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We do not have such specific terms concepts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interpersonal Psychotherapy (IPT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interpersonal psychotherapy (regime/therapy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8G16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interpersonal psychotherapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group based CBT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognitive behavioral therapy by multidisciplinary team (regime/therapy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heart attack in 1st degree relative aged &lt; 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">275122004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family history: Myocardial infarction at less than 60 (situation)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ICD-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RENAL DIALYSIS DEPENDENCE***. The codes designs renal dialyses dependency***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7L1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compensation for renal failure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*** The codes designs renal dialyses dependency***,  ICD-9 --&gt; V4511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amputation of lower limb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amputation of lower limb (procedure)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z89.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7L06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amputation of leg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kidney transplantation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transplant of kidney (procedure)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Njurtransplanterad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z94.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kidney transplant status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7B00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transplantation of kidney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cognitive Behavioral Therapy (CBT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cognitive behavioral therapy for psychosis (regime/therapy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8G13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cognitive-behaviour therapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We do not have such specific terms concepts. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interpersonal Psychotherapy (IPT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interpersonal psychotherapy (regime/therapy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8G16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interpersonal psychotherapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group based CBT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cognitive behavioral therapy by multidisciplinary team (regime/therapy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heart attack in 1st degree relative aged &lt; 60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">275122004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family history: Myocardial infarction at less than 60 (situation)</t>
   </si>
   <si>
     <t xml:space="preserve">Z8249</t>
@@ -4627,7 +4627,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="56">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4648,13 +4648,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4683,26 +4676,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -4726,6 +4706,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -4788,13 +4769,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4832,6 +4806,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <i val="true"/>
       <sz val="12"/>
@@ -4845,12 +4826,6 @@
       <name val="-webkit-standard"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4923,12 +4898,24 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF376092"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -4945,11 +4932,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -5364,7 +5346,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5388,183 +5370,231 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="57" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="271">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5572,203 +5602,147 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="8" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="10" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="10" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5776,231 +5750,379 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="26" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="26" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6008,147 +6130,83 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6156,91 +6214,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6256,27 +6230,23 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="43" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6288,139 +6258,135 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="43" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="48" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="7" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="49" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="49" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="49" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="51" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="52" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="52" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="52" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6428,19 +6394,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6452,19 +6418,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6484,29 +6450,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="57" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 3" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Bad" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
@@ -6587,9 +6551,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6598,8 +6562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23362920" y="624960"/>
-          <a:ext cx="304560" cy="331200"/>
+          <a:off x="23360760" y="624960"/>
+          <a:ext cx="304200" cy="330840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6627,9 +6591,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6638,8 +6602,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23362920" y="3214440"/>
-          <a:ext cx="304560" cy="331200"/>
+          <a:off x="23360760" y="3214440"/>
+          <a:ext cx="304200" cy="330840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6667,9 +6631,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6678,8 +6642,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23362920" y="4261320"/>
-          <a:ext cx="304560" cy="331560"/>
+          <a:off x="23360760" y="4261320"/>
+          <a:ext cx="304200" cy="331200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6707,9 +6671,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6718,8 +6682,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23362920" y="624960"/>
-          <a:ext cx="304560" cy="331200"/>
+          <a:off x="23360760" y="624960"/>
+          <a:ext cx="304200" cy="330840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6747,9 +6711,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6758,8 +6722,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23362920" y="3214440"/>
-          <a:ext cx="304560" cy="331200"/>
+          <a:off x="23360760" y="3214440"/>
+          <a:ext cx="304200" cy="330840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6787,9 +6751,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>304920</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6798,8 +6762,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27455040" y="842040"/>
-          <a:ext cx="304560" cy="331200"/>
+          <a:off x="27453600" y="842040"/>
+          <a:ext cx="304200" cy="330840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6827,9 +6791,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>304920</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6838,8 +6802,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27455040" y="3431520"/>
-          <a:ext cx="304560" cy="388080"/>
+          <a:off x="27453600" y="3431520"/>
+          <a:ext cx="304200" cy="387720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6867,9 +6831,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>304920</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>101880</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6878,8 +6842,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27455040" y="4686480"/>
-          <a:ext cx="304560" cy="309240"/>
+          <a:off x="27453600" y="4686480"/>
+          <a:ext cx="304200" cy="308880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6907,9 +6871,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>304920</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6918,8 +6882,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27455040" y="624960"/>
-          <a:ext cx="304560" cy="331200"/>
+          <a:off x="27453600" y="624960"/>
+          <a:ext cx="304200" cy="330840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6947,9 +6911,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>304920</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6958,8 +6922,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27455040" y="3214440"/>
-          <a:ext cx="304560" cy="402480"/>
+          <a:off x="27453600" y="3214440"/>
+          <a:ext cx="304200" cy="402120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6987,9 +6951,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>304920</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6998,8 +6962,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27455040" y="4261320"/>
-          <a:ext cx="304560" cy="331560"/>
+          <a:off x="27453600" y="4261320"/>
+          <a:ext cx="304200" cy="331200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7032,9 +6996,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>216720</xdr:rowOff>
+      <xdr:rowOff>216360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7043,8 +7007,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="32999040" y="636840"/>
-          <a:ext cx="304560" cy="433800"/>
+          <a:off x="32997600" y="636840"/>
+          <a:ext cx="304200" cy="433440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7072,9 +7036,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>202320</xdr:rowOff>
+      <xdr:rowOff>201960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7083,8 +7047,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="32999040" y="4955400"/>
-          <a:ext cx="304560" cy="419400"/>
+          <a:off x="32997600" y="4955400"/>
+          <a:ext cx="304200" cy="419040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7112,9 +7076,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>207360</xdr:rowOff>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7123,8 +7087,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="32999040" y="6002640"/>
-          <a:ext cx="304560" cy="424440"/>
+          <a:off x="32997600" y="6002640"/>
+          <a:ext cx="304200" cy="424080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7152,9 +7116,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>216720</xdr:rowOff>
+      <xdr:rowOff>216360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7163,8 +7127,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="32999040" y="636840"/>
-          <a:ext cx="304560" cy="433800"/>
+          <a:off x="32997600" y="636840"/>
+          <a:ext cx="304200" cy="433440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7192,9 +7156,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>202320</xdr:rowOff>
+      <xdr:rowOff>201960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7203,8 +7167,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="32999040" y="4955400"/>
-          <a:ext cx="304560" cy="419400"/>
+          <a:off x="32997600" y="4955400"/>
+          <a:ext cx="304200" cy="419040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7232,9 +7196,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>864720</xdr:rowOff>
+      <xdr:rowOff>864360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7244,7 +7208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="39843000" y="853920"/>
-          <a:ext cx="304560" cy="1081800"/>
+          <a:ext cx="304200" cy="1081440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7272,9 +7236,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7284,7 +7248,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="39843000" y="5172480"/>
-          <a:ext cx="304560" cy="463680"/>
+          <a:ext cx="304200" cy="463320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7312,9 +7276,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7324,7 +7288,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="39843000" y="6427440"/>
-          <a:ext cx="304560" cy="347400"/>
+          <a:ext cx="304200" cy="347040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7352,9 +7316,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>216720</xdr:rowOff>
+      <xdr:rowOff>216360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7364,7 +7328,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="39843000" y="636840"/>
-          <a:ext cx="304560" cy="433800"/>
+          <a:ext cx="304200" cy="433440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7392,9 +7356,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7404,7 +7368,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="39843000" y="4955400"/>
-          <a:ext cx="304560" cy="490680"/>
+          <a:ext cx="304200" cy="490320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7432,9 +7396,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>207360</xdr:rowOff>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7444,7 +7408,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="39843000" y="6002640"/>
-          <a:ext cx="304560" cy="424440"/>
+          <a:ext cx="304200" cy="424080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7477,12 +7441,12 @@
   </sheetPr>
   <dimension ref="A1:S138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
-      <selection pane="bottomRight" activeCell="J85" activeCellId="0" sqref="J85"/>
+      <selection pane="bottomRight" activeCell="L56" activeCellId="0" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7492,18 +7456,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="91.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="42.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="20.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="66.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="48.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="48.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="2.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12332,7 +12296,7 @@
   </sheetPr>
   <dimension ref="H1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I66" activeCellId="0" sqref="I66"/>
     </sheetView>
   </sheetViews>
@@ -12345,138 +12309,138 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H1" s="270" t="s">
+      <c r="H1" s="268" t="s">
         <v>246</v>
       </c>
-      <c r="I1" s="270" t="s">
+      <c r="I1" s="268" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H2" s="270" t="s">
+      <c r="H2" s="268" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="270" t="s">
+      <c r="I2" s="268" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H3" s="270" t="s">
+      <c r="H3" s="268" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="270" t="s">
+      <c r="I3" s="268" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="270" t="s">
+      <c r="H4" s="268" t="s">
         <v>660</v>
       </c>
-      <c r="I4" s="271" t="s">
+      <c r="I4" s="269" t="s">
         <v>1427</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H5" s="270" t="s">
+      <c r="H5" s="268" t="s">
         <v>476</v>
       </c>
-      <c r="I5" s="270" t="s">
+      <c r="I5" s="268" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H6" s="270" t="s">
+      <c r="H6" s="268" t="s">
         <v>469</v>
       </c>
-      <c r="I6" s="270" t="s">
+      <c r="I6" s="268" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H7" s="270" t="s">
+      <c r="H7" s="268" t="s">
         <v>547</v>
       </c>
-      <c r="I7" s="270" t="s">
+      <c r="I7" s="268" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H8" s="270" t="s">
+      <c r="H8" s="268" t="s">
         <v>1428</v>
       </c>
-      <c r="I8" s="272" t="s">
+      <c r="I8" s="270" t="s">
         <v>1429</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H9" s="270" t="s">
+      <c r="H9" s="268" t="s">
         <v>386</v>
       </c>
-      <c r="I9" s="270" t="s">
+      <c r="I9" s="268" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H10" s="270" t="s">
+      <c r="H10" s="268" t="s">
         <v>192</v>
       </c>
-      <c r="I10" s="270" t="s">
+      <c r="I10" s="268" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H11" s="270" t="s">
+      <c r="H11" s="268" t="s">
         <v>199</v>
       </c>
-      <c r="I11" s="270" t="s">
+      <c r="I11" s="268" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="270" t="s">
+      <c r="H12" s="268" t="s">
         <v>206</v>
       </c>
-      <c r="I12" s="270" t="s">
+      <c r="I12" s="268" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="270" t="s">
+      <c r="H13" s="268" t="s">
         <v>1430</v>
       </c>
-      <c r="I13" s="270" t="s">
+      <c r="I13" s="268" t="s">
         <v>1431</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="270" t="s">
+      <c r="H14" s="268" t="s">
         <v>420</v>
       </c>
-      <c r="I14" s="270" t="s">
+      <c r="I14" s="268" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="270" t="s">
+      <c r="H15" s="268" t="s">
         <v>553</v>
       </c>
-      <c r="I15" s="270" t="s">
+      <c r="I15" s="268" t="s">
         <v>1433</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="270" t="s">
+      <c r="H16" s="268" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="270" t="s">
+      <c r="I16" s="268" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="270" t="s">
+      <c r="H17" s="268" t="s">
         <v>1435</v>
       </c>
-      <c r="I17" s="270" t="s">
+      <c r="I17" s="268" t="s">
         <v>1436</v>
       </c>
     </row>
@@ -12501,7 +12465,7 @@
   </sheetPr>
   <dimension ref="A1:S136"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
@@ -12511,15 +12475,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="100" width="41.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="100" width="41.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="100" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="100" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="100" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="100" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="100" width="56.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="100" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="100" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="100" width="46.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="100" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="100" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="100" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="100" width="78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="100" width="14.43"/>
@@ -12527,7 +12491,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="100" width="55.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="100" width="2.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="100" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="100" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="100" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="106" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14851,7 +14815,7 @@
   </sheetPr>
   <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -14877,7 +14841,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="153" width="38.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="100" width="2.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="153" width="38.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="153" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="153" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="106" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18590,7 +18554,7 @@
   </sheetPr>
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -18606,7 +18570,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="100" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="100" width="36.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="100" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="100" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="100" width="17.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="100" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="100" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="100" width="11.42"/>
@@ -18616,7 +18580,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="100" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="100" width="2.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="100" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="100" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="100" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="106" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19312,8 +19276,8 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19326,11 +19290,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="43.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="25.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="78.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="78.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.99"/>
@@ -19412,7 +19376,7 @@
       <c r="M2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="207" t="s">
+      <c r="N2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="O2" s="23" t="s">
@@ -19429,8 +19393,8 @@
       </c>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="208" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="207" t="s">
         <v>1175</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -19445,31 +19409,31 @@
       <c r="H3" s="0" t="s">
         <v>1176</v>
       </c>
-      <c r="L3" s="209" t="s">
+      <c r="L3" s="208" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="209" t="s">
         <v>1177</v>
       </c>
-      <c r="M3" s="209" t="s">
+      <c r="N3" s="209" t="s">
         <v>1178</v>
-      </c>
-      <c r="N3" s="209" t="s">
-        <v>1179</v>
       </c>
       <c r="O3" s="210" t="s">
         <v>26</v>
       </c>
       <c r="P3" s="210" t="s">
+        <v>1179</v>
+      </c>
+      <c r="Q3" s="210" t="s">
         <v>1180</v>
       </c>
-      <c r="Q3" s="210" t="s">
+      <c r="S3" s="0" t="s">
         <v>1181</v>
       </c>
-      <c r="S3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="207" t="s">
         <v>1182</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="208" t="s">
-        <v>1183</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>16</v>
@@ -19481,30 +19445,30 @@
         <v>397117006</v>
       </c>
       <c r="H4" s="0" t="s">
+        <v>1183</v>
+      </c>
+      <c r="L4" s="208" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="209" t="s">
         <v>1184</v>
       </c>
-      <c r="L4" s="209" t="s">
-        <v>1177</v>
-      </c>
-      <c r="M4" s="209" t="s">
-        <v>1185</v>
-      </c>
       <c r="N4" s="209" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="O4" s="210" t="s">
         <v>26</v>
       </c>
       <c r="P4" s="210" t="s">
+        <v>1185</v>
+      </c>
+      <c r="Q4" s="210" t="s">
         <v>1186</v>
       </c>
-      <c r="Q4" s="210" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="207" t="s">
         <v>1187</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="208" t="s">
-        <v>1188</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>16</v>
@@ -19516,41 +19480,41 @@
         <v>70536003</v>
       </c>
       <c r="H5" s="212" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I5" s="213" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="214" t="s">
         <v>1189</v>
       </c>
-      <c r="I5" s="213" t="s">
-        <v>1177</v>
-      </c>
-      <c r="J5" s="214" t="s">
+      <c r="K5" s="215" t="s">
         <v>1190</v>
       </c>
-      <c r="K5" s="215" t="s">
+      <c r="L5" s="208" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="216" t="s">
         <v>1191</v>
       </c>
-      <c r="L5" s="216" t="s">
-        <v>1177</v>
-      </c>
-      <c r="M5" s="217" t="s">
+      <c r="N5" s="217" t="s">
         <v>1192</v>
       </c>
-      <c r="N5" s="218" t="s">
+      <c r="O5" s="218" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="218" t="s">
         <v>1193</v>
       </c>
-      <c r="O5" s="219" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="219" t="s">
+      <c r="Q5" s="218" t="s">
         <v>1194</v>
       </c>
-      <c r="Q5" s="219" t="s">
+      <c r="R5" s="219"/>
+      <c r="S5" s="219"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="220" t="s">
         <v>1195</v>
-      </c>
-      <c r="R5" s="220"/>
-      <c r="S5" s="220"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="221" t="s">
-        <v>1196</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>16</v>
@@ -19558,37 +19522,37 @@
       <c r="F6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="222" t="n">
+      <c r="G6" s="219" t="n">
         <v>718026005</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>954</v>
       </c>
-      <c r="M6" s="223" t="s">
+      <c r="M6" s="221" t="s">
         <v>385</v>
       </c>
-      <c r="N6" s="223" t="s">
+      <c r="N6" s="221" t="s">
         <v>955</v>
       </c>
       <c r="O6" s="210" t="s">
         <v>26</v>
       </c>
       <c r="P6" s="210" t="s">
+        <v>1197</v>
+      </c>
+      <c r="Q6" s="210" t="s">
         <v>1198</v>
       </c>
-      <c r="Q6" s="210" t="s">
+      <c r="S6" s="221" t="s">
         <v>1199</v>
       </c>
-      <c r="S6" s="223" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="220" t="s">
         <v>1200</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="221" t="s">
-        <v>1201</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>16</v>
@@ -19596,37 +19560,37 @@
       <c r="F7" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="222" t="n">
+      <c r="G7" s="219" t="n">
         <v>443730003</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>954</v>
       </c>
-      <c r="M7" s="223" t="s">
+      <c r="M7" s="221" t="s">
         <v>385</v>
       </c>
-      <c r="N7" s="223" t="s">
+      <c r="N7" s="221" t="s">
         <v>955</v>
       </c>
       <c r="O7" s="210" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="210" t="s">
+        <v>1202</v>
+      </c>
+      <c r="Q7" s="210" t="s">
         <v>1203</v>
       </c>
-      <c r="Q7" s="210" t="s">
+      <c r="S7" s="221" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="220" t="s">
         <v>1204</v>
-      </c>
-      <c r="S7" s="223" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="221" t="s">
-        <v>1205</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>16</v>
@@ -19634,19 +19598,19 @@
       <c r="F8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="222" t="n">
+      <c r="G8" s="219" t="n">
         <v>425680009</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>954</v>
       </c>
-      <c r="M8" s="223" t="s">
+      <c r="M8" s="221" t="s">
         <v>385</v>
       </c>
-      <c r="N8" s="223" t="s">
+      <c r="N8" s="221" t="s">
         <v>955</v>
       </c>
       <c r="O8" s="210" t="s">
@@ -19656,8 +19620,8 @@
         <v>385</v>
       </c>
       <c r="Q8" s="210"/>
-      <c r="S8" s="223" t="s">
-        <v>1200</v>
+      <c r="S8" s="221" t="s">
+        <v>1199</v>
       </c>
     </row>
   </sheetData>
@@ -19685,7 +19649,7 @@
   </sheetPr>
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
@@ -19695,15 +19659,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="100" width="47.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="100" width="47.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="100" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="100" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="100" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="100" width="36.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="100" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="100" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="100" width="17.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="100" width="23.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="100" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="100" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="100" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="100" width="80.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="100" width="15.15"/>
@@ -19711,7 +19675,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="100" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="100" width="2.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="100" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="100" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="100" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="106" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19798,7 +19762,7 @@
       <c r="P2" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="224" t="s">
+      <c r="Q2" s="222" t="s">
         <v>14</v>
       </c>
       <c r="R2" s="9" t="s">
@@ -19808,7 +19772,7 @@
     </row>
     <row r="3" s="106" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="142" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B3" s="106" t="s">
         <v>16</v>
@@ -19816,14 +19780,14 @@
       <c r="F3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="223" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H3" s="224" t="s">
         <v>1208</v>
       </c>
-      <c r="H3" s="226" t="s">
+      <c r="I3" s="225" t="s">
         <v>1209</v>
-      </c>
-      <c r="I3" s="227" t="s">
-        <v>1177</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>423</v>
@@ -19831,22 +19795,22 @@
       <c r="K3" s="42" t="s">
         <v>424</v>
       </c>
-      <c r="L3" s="228" t="s">
-        <v>1177</v>
+      <c r="L3" s="226" t="s">
+        <v>1209</v>
       </c>
       <c r="M3" s="26" t="s">
         <v>1210</v>
       </c>
-      <c r="N3" s="229" t="s">
+      <c r="N3" s="227" t="s">
         <v>1211</v>
       </c>
-      <c r="O3" s="230" t="s">
+      <c r="O3" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="230" t="s">
+      <c r="P3" s="228" t="s">
         <v>1212</v>
       </c>
-      <c r="Q3" s="230" t="s">
+      <c r="Q3" s="228" t="s">
         <v>1213</v>
       </c>
       <c r="R3" s="9" t="s">
@@ -19866,10 +19830,10 @@
       <c r="F4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="231" t="s">
+      <c r="G4" s="229" t="s">
         <v>1215</v>
       </c>
-      <c r="H4" s="232" t="s">
+      <c r="H4" s="230" t="s">
         <v>1216</v>
       </c>
       <c r="I4" s="27" t="s">
@@ -19881,8 +19845,8 @@
       <c r="K4" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="228" t="s">
-        <v>1177</v>
+      <c r="L4" s="226" t="s">
+        <v>1209</v>
       </c>
       <c r="M4" s="26" t="s">
         <v>1210</v>
@@ -19890,13 +19854,13 @@
       <c r="N4" s="26" t="s">
         <v>1211</v>
       </c>
-      <c r="O4" s="230" t="s">
+      <c r="O4" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="230" t="s">
+      <c r="P4" s="228" t="s">
         <v>1217</v>
       </c>
-      <c r="Q4" s="230" t="s">
+      <c r="Q4" s="228" t="s">
         <v>1218</v>
       </c>
       <c r="R4" s="9" t="s">
@@ -19919,7 +19883,7 @@
       <c r="G5" s="26" t="s">
         <v>1220</v>
       </c>
-      <c r="H5" s="232" t="s">
+      <c r="H5" s="230" t="s">
         <v>1221</v>
       </c>
       <c r="I5" s="27" t="s">
@@ -19931,7 +19895,7 @@
       <c r="K5" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="L5" s="228" t="s">
+      <c r="L5" s="226" t="s">
         <v>1222</v>
       </c>
       <c r="M5" s="26" t="s">
@@ -19940,13 +19904,13 @@
       <c r="N5" s="26" t="s">
         <v>1224</v>
       </c>
-      <c r="O5" s="230" t="s">
+      <c r="O5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="230" t="s">
+      <c r="P5" s="228" t="s">
         <v>1225</v>
       </c>
-      <c r="Q5" s="230" t="s">
+      <c r="Q5" s="228" t="s">
         <v>1226</v>
       </c>
       <c r="R5" s="9" t="s">
@@ -19969,14 +19933,14 @@
       <c r="G6" s="9" t="n">
         <v>160389004</v>
       </c>
-      <c r="H6" s="233" t="s">
+      <c r="H6" s="231" t="s">
         <v>1228</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="228" t="s">
-        <v>1177</v>
+      <c r="L6" s="226" t="s">
+        <v>1209</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>1229</v>
@@ -19984,13 +19948,13 @@
       <c r="N6" s="9" t="s">
         <v>1230</v>
       </c>
-      <c r="O6" s="234" t="s">
+      <c r="O6" s="232" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="234" t="s">
+      <c r="P6" s="232" t="s">
         <v>1231</v>
       </c>
-      <c r="Q6" s="234" t="s">
+      <c r="Q6" s="232" t="s">
         <v>1232</v>
       </c>
       <c r="R6" s="9" t="s">
@@ -20006,8 +19970,8 @@
       </c>
     </row>
     <row r="8" s="9" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L8" s="235"/>
-      <c r="N8" s="236"/>
+      <c r="L8" s="233"/>
+      <c r="N8" s="234"/>
       <c r="R8" s="9" t="s">
         <v>5</v>
       </c>
@@ -20493,7 +20457,7 @@
   </sheetPr>
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -20504,37 +20468,37 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.42"/>
   </cols>
   <sheetData>
-    <row r="1" s="220" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="220" t="s">
+    <row r="1" s="219" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="219" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="2" s="220" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" s="220" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="220" t="s">
+    <row r="2" s="219" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" s="219" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="219" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="4" s="220" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" s="220" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="220" t="s">
+    <row r="4" s="219" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" s="219" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="219" t="s">
         <v>1235</v>
       </c>
-      <c r="C5" s="220" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" s="220" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C5" s="219" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" s="219" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" s="11" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="220" t="s">
+      <c r="A7" s="219" t="s">
         <v>1236</v>
       </c>
-      <c r="N7" s="237"/>
+      <c r="N7" s="235"/>
       <c r="O7" s="91" t="s">
         <v>26</v>
       </c>
@@ -20547,26 +20511,26 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="8" s="220" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" s="220" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="220" t="s">
+    <row r="8" s="219" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" s="219" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="219" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="10" s="220" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" s="220" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="220" t="s">
+    <row r="10" s="219" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" s="219" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="219" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="12" s="220" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="220" t="s">
+    <row r="12" s="219" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="219" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="13" s="220" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" s="220" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="220" t="s">
+    <row r="13" s="219" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" s="219" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="219" t="s">
         <v>1241</v>
       </c>
     </row>
@@ -20593,15 +20557,15 @@
   </sheetPr>
   <dimension ref="A1:W137"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="100" width="41.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="100" width="41.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="100" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="100" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="100" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="100" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="100" width="56.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="100" width="42.86"/>
@@ -20609,7 +20573,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="100" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="100" width="46.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="100" width="52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="100" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="100" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="100" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="100" width="78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="100" width="41.71"/>
@@ -20619,7 +20583,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="100" width="39.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="100" width="2.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="100" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="100" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="100" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="106" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20630,24 +20594,24 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="238" t="s">
+      <c r="F1" s="236" t="s">
         <v>1242</v>
       </c>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="239" t="s">
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
-      <c r="N1" s="240" t="s">
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
+      <c r="N1" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="240"/>
-      <c r="P1" s="240"/>
-      <c r="Q1" s="240"/>
+      <c r="O1" s="238"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
       <c r="R1" s="104" t="s">
         <v>4</v>
       </c>
@@ -20686,7 +20650,7 @@
       <c r="H2" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="241" t="s">
+      <c r="I2" s="239" t="s">
         <v>1243</v>
       </c>
       <c r="J2" s="111" t="s">
@@ -20746,7 +20710,7 @@
       <c r="H3" s="118" t="s">
         <v>722</v>
       </c>
-      <c r="I3" s="242" t="s">
+      <c r="I3" s="240" t="s">
         <v>1244</v>
       </c>
       <c r="J3" s="9" t="s">
@@ -20809,7 +20773,7 @@
       <c r="H4" s="118" t="s">
         <v>732</v>
       </c>
-      <c r="I4" s="242"/>
+      <c r="I4" s="240"/>
       <c r="J4" s="117" t="s">
         <v>723</v>
       </c>
@@ -20856,7 +20820,7 @@
       <c r="H5" s="118" t="s">
         <v>739</v>
       </c>
-      <c r="I5" s="242" t="s">
+      <c r="I5" s="240" t="s">
         <v>1248</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -20907,7 +20871,7 @@
       <c r="H6" s="128" t="s">
         <v>745</v>
       </c>
-      <c r="I6" s="243" t="s">
+      <c r="I6" s="241" t="s">
         <v>1249</v>
       </c>
       <c r="J6" s="117" t="s">
@@ -20973,7 +20937,7 @@
       <c r="H7" s="128" t="s">
         <v>754</v>
       </c>
-      <c r="I7" s="243" t="s">
+      <c r="I7" s="241" t="s">
         <v>1252</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -20995,7 +20959,7 @@
       <c r="P7" s="117" t="s">
         <v>757</v>
       </c>
-      <c r="Q7" s="244" t="s">
+      <c r="Q7" s="242" t="s">
         <v>1252</v>
       </c>
       <c r="R7" s="120" t="s">
@@ -21037,7 +21001,7 @@
       <c r="H8" s="118" t="s">
         <v>761</v>
       </c>
-      <c r="I8" s="242" t="s">
+      <c r="I8" s="240" t="s">
         <v>1254</v>
       </c>
       <c r="J8" s="117" t="s">
@@ -21097,7 +21061,7 @@
       <c r="H9" s="118" t="s">
         <v>769</v>
       </c>
-      <c r="I9" s="242" t="s">
+      <c r="I9" s="240" t="s">
         <v>1258</v>
       </c>
       <c r="J9" s="9" t="s">
@@ -21160,7 +21124,7 @@
       <c r="H10" s="128" t="s">
         <v>776</v>
       </c>
-      <c r="I10" s="243" t="s">
+      <c r="I10" s="241" t="s">
         <v>1261</v>
       </c>
       <c r="J10" s="117" t="s">
@@ -21220,7 +21184,7 @@
       <c r="H11" s="118" t="s">
         <v>784</v>
       </c>
-      <c r="I11" s="242" t="s">
+      <c r="I11" s="240" t="s">
         <v>1262</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -21274,7 +21238,7 @@
       <c r="H12" s="128" t="s">
         <v>788</v>
       </c>
-      <c r="I12" s="243" t="s">
+      <c r="I12" s="241" t="s">
         <v>1261</v>
       </c>
       <c r="J12" s="117" t="s">
@@ -21337,7 +21301,7 @@
       <c r="H13" s="118" t="s">
         <v>796</v>
       </c>
-      <c r="I13" s="242"/>
+      <c r="I13" s="240"/>
       <c r="J13" s="9" t="s">
         <v>723</v>
       </c>
@@ -21371,7 +21335,7 @@
       <c r="A14" s="9"/>
       <c r="F14" s="9"/>
       <c r="H14" s="118"/>
-      <c r="I14" s="242"/>
+      <c r="I14" s="240"/>
       <c r="J14" s="117" t="s">
         <v>723</v>
       </c>
@@ -21396,7 +21360,7 @@
       <c r="A15" s="9"/>
       <c r="F15" s="9"/>
       <c r="H15" s="118"/>
-      <c r="I15" s="242"/>
+      <c r="I15" s="240"/>
       <c r="J15" s="9" t="s">
         <v>723</v>
       </c>
@@ -21433,7 +21397,7 @@
       <c r="H16" s="118" t="s">
         <v>804</v>
       </c>
-      <c r="I16" s="242"/>
+      <c r="I16" s="240"/>
       <c r="J16" s="117" t="s">
         <v>723</v>
       </c>
@@ -21483,7 +21447,7 @@
       <c r="H17" s="128" t="s">
         <v>810</v>
       </c>
-      <c r="I17" s="243" t="s">
+      <c r="I17" s="241" t="s">
         <v>1252</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -21541,7 +21505,7 @@
       <c r="H18" s="118" t="s">
         <v>817</v>
       </c>
-      <c r="I18" s="242" t="s">
+      <c r="I18" s="240" t="s">
         <v>1267</v>
       </c>
       <c r="J18" s="117" t="s">
@@ -21579,7 +21543,7 @@
     <row r="19" s="117" customFormat="true" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="128"/>
       <c r="H19" s="128"/>
-      <c r="I19" s="243"/>
+      <c r="I19" s="241"/>
       <c r="J19" s="9" t="s">
         <v>723</v>
       </c>
@@ -21614,7 +21578,7 @@
       <c r="H20" s="128" t="s">
         <v>823</v>
       </c>
-      <c r="I20" s="243" t="s">
+      <c r="I20" s="241" t="s">
         <v>1270</v>
       </c>
       <c r="J20" s="117" t="s">
@@ -21677,7 +21641,7 @@
       <c r="H21" s="118" t="s">
         <v>831</v>
       </c>
-      <c r="I21" s="242"/>
+      <c r="I21" s="240"/>
       <c r="J21" s="9" t="s">
         <v>723</v>
       </c>
@@ -21738,7 +21702,7 @@
       <c r="H22" s="118" t="s">
         <v>838</v>
       </c>
-      <c r="I22" s="242"/>
+      <c r="I22" s="240"/>
       <c r="J22" s="117" t="s">
         <v>723</v>
       </c>
@@ -21796,7 +21760,7 @@
       <c r="H23" s="118" t="s">
         <v>845</v>
       </c>
-      <c r="I23" s="242"/>
+      <c r="I23" s="240"/>
       <c r="J23" s="9" t="s">
         <v>723</v>
       </c>
@@ -21834,7 +21798,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="118"/>
-      <c r="I24" s="242"/>
+      <c r="I24" s="240"/>
       <c r="J24" s="117" t="s">
         <v>723</v>
       </c>
@@ -21868,7 +21832,7 @@
       <c r="H25" s="128" t="s">
         <v>850</v>
       </c>
-      <c r="I25" s="243"/>
+      <c r="I25" s="241"/>
       <c r="J25" s="9" t="s">
         <v>723</v>
       </c>
@@ -21919,7 +21883,7 @@
       <c r="H26" s="118" t="s">
         <v>856</v>
       </c>
-      <c r="I26" s="242"/>
+      <c r="I26" s="240"/>
       <c r="J26" s="117" t="s">
         <v>723</v>
       </c>
@@ -21977,7 +21941,7 @@
       <c r="H27" s="118" t="s">
         <v>864</v>
       </c>
-      <c r="I27" s="242"/>
+      <c r="I27" s="240"/>
       <c r="J27" s="9" t="s">
         <v>723</v>
       </c>
@@ -22033,7 +21997,7 @@
       <c r="H28" s="118" t="s">
         <v>871</v>
       </c>
-      <c r="I28" s="242"/>
+      <c r="I28" s="240"/>
       <c r="J28" s="117" t="s">
         <v>723</v>
       </c>
@@ -22091,7 +22055,7 @@
       <c r="H29" s="118" t="s">
         <v>879</v>
       </c>
-      <c r="I29" s="242"/>
+      <c r="I29" s="240"/>
       <c r="J29" s="9" t="s">
         <v>723</v>
       </c>
@@ -22149,7 +22113,7 @@
       <c r="H30" s="133" t="s">
         <v>887</v>
       </c>
-      <c r="I30" s="245"/>
+      <c r="I30" s="243"/>
       <c r="J30" s="9" t="s">
         <v>723</v>
       </c>
@@ -22193,7 +22157,7 @@
       <c r="H31" s="133" t="s">
         <v>890</v>
       </c>
-      <c r="I31" s="245"/>
+      <c r="I31" s="243"/>
       <c r="J31" s="117" t="s">
         <v>723</v>
       </c>
@@ -22245,7 +22209,7 @@
       <c r="H32" s="133" t="s">
         <v>897</v>
       </c>
-      <c r="I32" s="245"/>
+      <c r="I32" s="243"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -22270,7 +22234,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="136"/>
       <c r="H33" s="133"/>
-      <c r="I33" s="245"/>
+      <c r="I33" s="243"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -22296,7 +22260,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="136"/>
       <c r="H34" s="133"/>
-      <c r="I34" s="245"/>
+      <c r="I34" s="243"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -22316,7 +22280,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="136"/>
       <c r="H35" s="133"/>
-      <c r="I35" s="245"/>
+      <c r="I35" s="243"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -22336,7 +22300,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="136"/>
       <c r="H36" s="133"/>
-      <c r="I36" s="245"/>
+      <c r="I36" s="243"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
@@ -22356,7 +22320,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="136"/>
       <c r="H37" s="133"/>
-      <c r="I37" s="245"/>
+      <c r="I37" s="243"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
@@ -22376,7 +22340,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="136"/>
       <c r="H38" s="133"/>
-      <c r="I38" s="245"/>
+      <c r="I38" s="243"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
@@ -22396,7 +22360,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="136"/>
       <c r="H39" s="133"/>
-      <c r="I39" s="245"/>
+      <c r="I39" s="243"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
@@ -22416,7 +22380,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="136"/>
       <c r="H40" s="133"/>
-      <c r="I40" s="245"/>
+      <c r="I40" s="243"/>
       <c r="J40" s="117" t="s">
         <v>723</v>
       </c>
@@ -22448,7 +22412,7 @@
         <v>908</v>
       </c>
       <c r="H41" s="133"/>
-      <c r="I41" s="245"/>
+      <c r="I41" s="243"/>
       <c r="J41" s="117" t="s">
         <v>723</v>
       </c>
@@ -22498,7 +22462,7 @@
         <v>915</v>
       </c>
       <c r="H42" s="133"/>
-      <c r="I42" s="245"/>
+      <c r="I42" s="243"/>
       <c r="J42" s="117" t="s">
         <v>723</v>
       </c>
@@ -22527,7 +22491,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="136"/>
       <c r="H43" s="133"/>
-      <c r="I43" s="245"/>
+      <c r="I43" s="243"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
@@ -22561,7 +22525,7 @@
       <c r="F44" s="9"/>
       <c r="G44" s="136"/>
       <c r="H44" s="133"/>
-      <c r="I44" s="245"/>
+      <c r="I44" s="243"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
@@ -22595,7 +22559,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="136"/>
       <c r="H45" s="133"/>
-      <c r="I45" s="245"/>
+      <c r="I45" s="243"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
@@ -22623,7 +22587,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="136"/>
       <c r="H46" s="133"/>
-      <c r="I46" s="245"/>
+      <c r="I46" s="243"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
@@ -22651,7 +22615,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="136"/>
       <c r="H47" s="133"/>
-      <c r="I47" s="245"/>
+      <c r="I47" s="243"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
@@ -22672,7 +22636,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="136"/>
       <c r="H48" s="133"/>
-      <c r="I48" s="245"/>
+      <c r="I48" s="243"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
@@ -22693,7 +22657,7 @@
       <c r="F49" s="9"/>
       <c r="G49" s="136"/>
       <c r="H49" s="133"/>
-      <c r="I49" s="245"/>
+      <c r="I49" s="243"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
@@ -22723,7 +22687,7 @@
         <v>932</v>
       </c>
       <c r="H50" s="133"/>
-      <c r="I50" s="245" t="s">
+      <c r="I50" s="243" t="s">
         <v>1281</v>
       </c>
       <c r="K50" s="9"/>
@@ -22768,7 +22732,7 @@
         <v>938</v>
       </c>
       <c r="H51" s="133"/>
-      <c r="I51" s="245" t="s">
+      <c r="I51" s="243" t="s">
         <v>1281</v>
       </c>
       <c r="K51" s="9"/>
@@ -22818,7 +22782,7 @@
       <c r="H52" s="144" t="s">
         <v>945</v>
       </c>
-      <c r="I52" s="245" t="s">
+      <c r="I52" s="243" t="s">
         <v>1282</v>
       </c>
       <c r="K52" s="9"/>
@@ -22850,26 +22814,26 @@
       <c r="W52" s="139"/>
     </row>
     <row r="53" s="117" customFormat="true" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="246" t="s">
+      <c r="A53" s="244" t="s">
         <v>1284</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="133"/>
-      <c r="I53" s="245"/>
+      <c r="I53" s="243"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
-      <c r="N53" s="247" t="s">
+      <c r="N53" s="245" t="s">
         <v>726</v>
       </c>
-      <c r="O53" s="248" t="n">
+      <c r="O53" s="246" t="n">
         <v>11</v>
       </c>
-      <c r="P53" s="247" t="s">
+      <c r="P53" s="245" t="s">
         <v>1284</v>
       </c>
-      <c r="Q53" s="249" t="s">
+      <c r="Q53" s="247" t="s">
         <v>1264</v>
       </c>
       <c r="R53" s="120"/>
@@ -22884,7 +22848,7 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="133"/>
-      <c r="I54" s="245"/>
+      <c r="I54" s="243"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
@@ -22903,7 +22867,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
-      <c r="I55" s="242"/>
+      <c r="I55" s="240"/>
       <c r="J55" s="117"/>
       <c r="K55" s="148"/>
       <c r="L55" s="148"/>
@@ -22921,16 +22885,16 @@
       </c>
       <c r="W55" s="139"/>
     </row>
-    <row r="56" s="250" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R56" s="251"/>
-      <c r="S56" s="251"/>
-      <c r="T56" s="251"/>
-      <c r="U56" s="251"/>
-      <c r="V56" s="251"/>
+    <row r="56" s="248" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R56" s="249"/>
+      <c r="S56" s="249"/>
+      <c r="T56" s="249"/>
+      <c r="U56" s="249"/>
+      <c r="V56" s="249"/>
       <c r="W56" s="139"/>
     </row>
     <row r="57" s="106" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="252" t="s">
+      <c r="A57" s="250" t="s">
         <v>1285</v>
       </c>
       <c r="B57" s="148" t="n">
@@ -22953,10 +22917,10 @@
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
-      <c r="R57" s="253"/>
-      <c r="S57" s="253"/>
-      <c r="T57" s="253"/>
-      <c r="U57" s="253"/>
+      <c r="R57" s="251"/>
+      <c r="S57" s="251"/>
+      <c r="T57" s="251"/>
+      <c r="U57" s="251"/>
       <c r="V57" s="34" t="s">
         <v>5</v>
       </c>
@@ -22967,10 +22931,10 @@
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
-      <c r="R58" s="253"/>
-      <c r="S58" s="253"/>
-      <c r="T58" s="253"/>
-      <c r="U58" s="253"/>
+      <c r="R58" s="251"/>
+      <c r="S58" s="251"/>
+      <c r="T58" s="251"/>
+      <c r="U58" s="251"/>
       <c r="V58" s="34" t="s">
         <v>5</v>
       </c>
@@ -22981,84 +22945,84 @@
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
-      <c r="R59" s="253"/>
-      <c r="S59" s="253"/>
-      <c r="T59" s="253"/>
-      <c r="U59" s="253"/>
+      <c r="R59" s="251"/>
+      <c r="S59" s="251"/>
+      <c r="T59" s="251"/>
+      <c r="U59" s="251"/>
       <c r="V59" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="W59" s="253"/>
+      <c r="W59" s="251"/>
     </row>
     <row r="60" s="106" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
-      <c r="R60" s="253"/>
-      <c r="S60" s="253"/>
-      <c r="T60" s="253"/>
-      <c r="U60" s="253"/>
+      <c r="R60" s="251"/>
+      <c r="S60" s="251"/>
+      <c r="T60" s="251"/>
+      <c r="U60" s="251"/>
       <c r="V60" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="W60" s="251"/>
+      <c r="W60" s="249"/>
     </row>
     <row r="61" s="106" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
-      <c r="R61" s="253"/>
-      <c r="S61" s="253"/>
-      <c r="T61" s="253"/>
-      <c r="U61" s="253"/>
+      <c r="R61" s="251"/>
+      <c r="S61" s="251"/>
+      <c r="T61" s="251"/>
+      <c r="U61" s="251"/>
       <c r="V61" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="W61" s="253"/>
+      <c r="W61" s="251"/>
     </row>
     <row r="62" s="106" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="254" t="s">
+      <c r="A62" s="252" t="s">
         <v>1239</v>
       </c>
-      <c r="B62" s="254"/>
-      <c r="C62" s="254"/>
-      <c r="D62" s="254"/>
-      <c r="E62" s="254"/>
+      <c r="B62" s="252"/>
+      <c r="C62" s="252"/>
+      <c r="D62" s="252"/>
+      <c r="E62" s="252"/>
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
-      <c r="R62" s="253"/>
-      <c r="S62" s="253"/>
-      <c r="T62" s="253"/>
-      <c r="U62" s="253"/>
+      <c r="R62" s="251"/>
+      <c r="S62" s="251"/>
+      <c r="T62" s="251"/>
+      <c r="U62" s="251"/>
       <c r="V62" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="W62" s="253"/>
+      <c r="W62" s="251"/>
     </row>
     <row r="63" s="106" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="254" t="s">
+      <c r="A63" s="252" t="s">
         <v>1286</v>
       </c>
-      <c r="B63" s="254"/>
-      <c r="C63" s="254"/>
-      <c r="D63" s="254"/>
-      <c r="E63" s="254"/>
+      <c r="B63" s="252"/>
+      <c r="C63" s="252"/>
+      <c r="D63" s="252"/>
+      <c r="E63" s="252"/>
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
-      <c r="R63" s="253"/>
-      <c r="S63" s="253"/>
-      <c r="T63" s="253"/>
-      <c r="U63" s="253"/>
+      <c r="R63" s="251"/>
+      <c r="S63" s="251"/>
+      <c r="T63" s="251"/>
+      <c r="U63" s="251"/>
       <c r="V63" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="W63" s="253"/>
+      <c r="W63" s="251"/>
     </row>
     <row r="64" s="106" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N64" s="9"/>
@@ -23442,7 +23406,7 @@
   </sheetPr>
   <dimension ref="A1:P349"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="P54" activeCellId="0" sqref="P54"/>
@@ -23450,30 +23414,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="255" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="253" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="254" t="s">
         <v>1287</v>
       </c>
-      <c r="B1" s="256" t="s">
+      <c r="B1" s="254" t="s">
         <v>1288</v>
       </c>
-      <c r="C1" s="256" t="s">
+      <c r="C1" s="254" t="s">
         <v>1289</v>
       </c>
-      <c r="D1" s="257" t="s">
+      <c r="D1" s="255" t="s">
         <v>1290</v>
       </c>
-      <c r="E1" s="256" t="s">
+      <c r="E1" s="254" t="s">
         <v>1291</v>
       </c>
-      <c r="F1" s="256"/>
+      <c r="F1" s="254"/>
     </row>
     <row r="2" customFormat="false" ht="17.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="175" t="s">
@@ -23502,17 +23466,17 @@
       <c r="C3" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D3" s="258" t="s">
+      <c r="D3" s="256" t="s">
         <v>1149</v>
       </c>
       <c r="E3" s="175" t="s">
         <v>1292</v>
       </c>
-      <c r="F3" s="259"/>
-      <c r="N3" s="260" t="s">
+      <c r="F3" s="257"/>
+      <c r="N3" s="258" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="261" t="n">
+      <c r="O3" s="259" t="n">
         <v>98</v>
       </c>
     </row>
@@ -23532,15 +23496,15 @@
       <c r="E4" s="175" t="s">
         <v>1292</v>
       </c>
-      <c r="F4" s="259"/>
-      <c r="M4" s="262"/>
-      <c r="N4" s="263" t="s">
+      <c r="F4" s="257"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="261" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="264" t="n">
+      <c r="O4" s="262" t="n">
         <v>97</v>
       </c>
-      <c r="P4" s="265"/>
+      <c r="P4" s="263"/>
     </row>
     <row r="5" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="175" t="s">
@@ -23558,11 +23522,11 @@
       <c r="E5" s="175" t="s">
         <v>1293</v>
       </c>
-      <c r="F5" s="259"/>
-      <c r="N5" s="266" t="s">
+      <c r="F5" s="257"/>
+      <c r="N5" s="264" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="267" t="n">
+      <c r="O5" s="265" t="n">
         <v>52</v>
       </c>
     </row>
@@ -23582,11 +23546,11 @@
       <c r="E6" s="175" t="s">
         <v>958</v>
       </c>
-      <c r="F6" s="259"/>
-      <c r="N6" s="266" t="s">
+      <c r="F6" s="257"/>
+      <c r="N6" s="264" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="267" t="n">
+      <c r="O6" s="265" t="n">
         <v>101</v>
       </c>
     </row>
@@ -23606,11 +23570,11 @@
       <c r="E7" s="175" t="s">
         <v>962</v>
       </c>
-      <c r="F7" s="259"/>
-      <c r="N7" s="268" t="s">
+      <c r="F7" s="257"/>
+      <c r="N7" s="266" t="s">
         <v>1295</v>
       </c>
-      <c r="O7" s="269" t="n">
+      <c r="O7" s="267" t="n">
         <f aca="false">SUM(O3:O6)</f>
         <v>348</v>
       </c>
@@ -23625,13 +23589,13 @@
       <c r="C8" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D8" s="258" t="s">
+      <c r="D8" s="256" t="s">
         <v>1147</v>
       </c>
       <c r="E8" s="175" t="s">
         <v>959</v>
       </c>
-      <c r="F8" s="259"/>
+      <c r="F8" s="257"/>
     </row>
     <row r="9" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="175" t="s">
@@ -23649,7 +23613,7 @@
       <c r="E9" s="175" t="s">
         <v>959</v>
       </c>
-      <c r="F9" s="259"/>
+      <c r="F9" s="257"/>
     </row>
     <row r="10" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="175" t="s">
@@ -23684,7 +23648,7 @@
       <c r="E11" s="175" t="s">
         <v>966</v>
       </c>
-      <c r="F11" s="259"/>
+      <c r="F11" s="257"/>
     </row>
     <row r="12" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="175" t="s">
@@ -23696,13 +23660,13 @@
       <c r="C12" s="175" t="s">
         <v>720</v>
       </c>
-      <c r="D12" s="258" t="s">
+      <c r="D12" s="256" t="s">
         <v>721</v>
       </c>
       <c r="E12" s="175" t="s">
         <v>722</v>
       </c>
-      <c r="F12" s="259"/>
+      <c r="F12" s="257"/>
     </row>
     <row r="13" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="175" t="s">
@@ -23720,7 +23684,7 @@
       <c r="E13" s="175" t="s">
         <v>722</v>
       </c>
-      <c r="F13" s="259"/>
+      <c r="F13" s="257"/>
     </row>
     <row r="14" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="175" t="s">
@@ -23738,7 +23702,7 @@
       <c r="E14" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="259"/>
+      <c r="F14" s="257"/>
     </row>
     <row r="15" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="175" t="s">
@@ -23750,13 +23714,13 @@
       <c r="C15" s="175" t="s">
         <v>720</v>
       </c>
-      <c r="D15" s="258" t="s">
+      <c r="D15" s="256" t="s">
         <v>1299</v>
       </c>
       <c r="E15" s="175" t="s">
         <v>1300</v>
       </c>
-      <c r="F15" s="259"/>
+      <c r="F15" s="257"/>
     </row>
     <row r="16" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="175" t="s">
@@ -23774,7 +23738,7 @@
       <c r="E16" s="175" t="s">
         <v>1300</v>
       </c>
-      <c r="F16" s="259"/>
+      <c r="F16" s="257"/>
     </row>
     <row r="17" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="175" t="s">
@@ -23792,7 +23756,7 @@
       <c r="E17" s="175" t="s">
         <v>1301</v>
       </c>
-      <c r="F17" s="259"/>
+      <c r="F17" s="257"/>
     </row>
     <row r="18" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="175" t="s">
@@ -23810,7 +23774,7 @@
       <c r="E18" s="175" t="s">
         <v>974</v>
       </c>
-      <c r="F18" s="259"/>
+      <c r="F18" s="257"/>
     </row>
     <row r="19" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="175" t="s">
@@ -23828,7 +23792,7 @@
       <c r="E19" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="259"/>
+      <c r="F19" s="257"/>
     </row>
     <row r="20" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="175" t="s">
@@ -23840,13 +23804,13 @@
       <c r="C20" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="258" t="n">
+      <c r="D20" s="256" t="n">
         <v>1082621000119100</v>
       </c>
       <c r="E20" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="259"/>
+      <c r="F20" s="257"/>
     </row>
     <row r="21" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="175" t="s">
@@ -23864,7 +23828,7 @@
       <c r="E21" s="175" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="259"/>
+      <c r="F21" s="257"/>
     </row>
     <row r="22" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="175" t="s">
@@ -23882,7 +23846,7 @@
       <c r="E22" s="175" t="s">
         <v>1304</v>
       </c>
-      <c r="F22" s="259"/>
+      <c r="F22" s="257"/>
     </row>
     <row r="23" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="175" t="s">
@@ -23894,13 +23858,13 @@
       <c r="C23" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="258" t="n">
+      <c r="D23" s="256" t="n">
         <v>41309000</v>
       </c>
       <c r="E23" s="175" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="259"/>
+      <c r="F23" s="257"/>
     </row>
     <row r="24" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="175" t="s">
@@ -23918,7 +23882,7 @@
       <c r="E24" s="175" t="s">
         <v>974</v>
       </c>
-      <c r="F24" s="259"/>
+      <c r="F24" s="257"/>
     </row>
     <row r="25" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="175" t="s">
@@ -23936,7 +23900,7 @@
       <c r="E25" s="175" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="259"/>
+      <c r="F25" s="257"/>
     </row>
     <row r="26" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="175" t="s">
@@ -23948,13 +23912,13 @@
       <c r="C26" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="258" t="n">
+      <c r="D26" s="256" t="n">
         <v>288031000119105</v>
       </c>
       <c r="E26" s="175" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="259"/>
+      <c r="F26" s="257"/>
     </row>
     <row r="27" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="175" t="s">
@@ -23972,7 +23936,7 @@
       <c r="E27" s="175" t="s">
         <v>1305</v>
       </c>
-      <c r="F27" s="259"/>
+      <c r="F27" s="257"/>
     </row>
     <row r="28" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="175" t="s">
@@ -23984,13 +23948,13 @@
       <c r="C28" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D28" s="258" t="s">
+      <c r="D28" s="256" t="s">
         <v>1306</v>
       </c>
       <c r="E28" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="F28" s="259"/>
+      <c r="F28" s="257"/>
     </row>
     <row r="29" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="175" t="s">
@@ -24008,7 +23972,7 @@
       <c r="E29" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="F29" s="259"/>
+      <c r="F29" s="257"/>
     </row>
     <row r="30" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="175" t="s">
@@ -24026,7 +23990,7 @@
       <c r="E30" s="175" t="s">
         <v>1307</v>
       </c>
-      <c r="F30" s="259"/>
+      <c r="F30" s="257"/>
     </row>
     <row r="31" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="175" t="s">
@@ -24044,7 +24008,7 @@
       <c r="E31" s="175" t="s">
         <v>974</v>
       </c>
-      <c r="F31" s="259"/>
+      <c r="F31" s="257"/>
     </row>
     <row r="32" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="175" t="s">
@@ -24062,7 +24026,7 @@
       <c r="E32" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="259"/>
+      <c r="F32" s="257"/>
     </row>
     <row r="33" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="175" t="s">
@@ -24080,7 +24044,7 @@
       <c r="E33" s="175" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="259"/>
+      <c r="F33" s="257"/>
     </row>
     <row r="34" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="175" t="s">
@@ -24092,13 +24056,13 @@
       <c r="C34" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="258" t="n">
+      <c r="D34" s="256" t="n">
         <v>791000119109</v>
       </c>
       <c r="E34" s="175" t="s">
         <v>1308</v>
       </c>
-      <c r="F34" s="259"/>
+      <c r="F34" s="257"/>
     </row>
     <row r="35" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="175" t="s">
@@ -24116,7 +24080,7 @@
       <c r="E35" s="175" t="s">
         <v>974</v>
       </c>
-      <c r="F35" s="259"/>
+      <c r="F35" s="257"/>
     </row>
     <row r="36" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="175" t="s">
@@ -24128,13 +24092,13 @@
       <c r="C36" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D36" s="258" t="s">
+      <c r="D36" s="256" t="s">
         <v>973</v>
       </c>
       <c r="E36" s="175" t="s">
         <v>972</v>
       </c>
-      <c r="F36" s="259"/>
+      <c r="F36" s="257"/>
     </row>
     <row r="37" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="175" t="s">
@@ -24152,7 +24116,7 @@
       <c r="E37" s="175" t="s">
         <v>972</v>
       </c>
-      <c r="F37" s="259"/>
+      <c r="F37" s="257"/>
     </row>
     <row r="38" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="175" t="s">
@@ -24170,7 +24134,7 @@
       <c r="E38" s="175" t="s">
         <v>1309</v>
       </c>
-      <c r="F38" s="259"/>
+      <c r="F38" s="257"/>
     </row>
     <row r="39" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="175" t="s">
@@ -24188,7 +24152,7 @@
       <c r="E39" s="175" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="259"/>
+      <c r="F39" s="257"/>
     </row>
     <row r="40" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="175" t="s">
@@ -24206,7 +24170,7 @@
       <c r="E40" s="175" t="s">
         <v>1311</v>
       </c>
-      <c r="F40" s="259"/>
+      <c r="F40" s="257"/>
     </row>
     <row r="41" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="175" t="s">
@@ -24218,13 +24182,13 @@
       <c r="C41" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="258" t="n">
+      <c r="D41" s="256" t="n">
         <v>239872002</v>
       </c>
       <c r="E41" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="F41" s="259"/>
+      <c r="F41" s="257"/>
     </row>
     <row r="42" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="175" t="s">
@@ -24242,7 +24206,7 @@
       <c r="E42" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="259"/>
+      <c r="F42" s="257"/>
     </row>
     <row r="43" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="175" t="s">
@@ -24260,7 +24224,7 @@
       <c r="E43" s="175" t="s">
         <v>1313</v>
       </c>
-      <c r="F43" s="259"/>
+      <c r="F43" s="257"/>
     </row>
     <row r="44" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="175" t="s">
@@ -24272,13 +24236,13 @@
       <c r="C44" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="258" t="n">
+      <c r="D44" s="256" t="n">
         <v>201841000</v>
       </c>
       <c r="E44" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="259"/>
+      <c r="F44" s="257"/>
     </row>
     <row r="45" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="175" t="s">
@@ -24296,7 +24260,7 @@
       <c r="E45" s="175" t="s">
         <v>974</v>
       </c>
-      <c r="F45" s="259"/>
+      <c r="F45" s="257"/>
     </row>
     <row r="46" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="175" t="s">
@@ -24314,7 +24278,7 @@
       <c r="E46" s="175" t="s">
         <v>93</v>
       </c>
-      <c r="F46" s="259"/>
+      <c r="F46" s="257"/>
     </row>
     <row r="47" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="175" t="s">
@@ -24332,7 +24296,7 @@
       <c r="E47" s="175" t="s">
         <v>95</v>
       </c>
-      <c r="F47" s="259"/>
+      <c r="F47" s="257"/>
     </row>
     <row r="48" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="175" t="s">
@@ -24344,13 +24308,13 @@
       <c r="C48" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="258" t="n">
+      <c r="D48" s="256" t="n">
         <v>38716007</v>
       </c>
       <c r="E48" s="175" t="s">
         <v>1314</v>
       </c>
-      <c r="F48" s="259"/>
+      <c r="F48" s="257"/>
     </row>
     <row r="49" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="175" t="s">
@@ -24362,13 +24326,13 @@
       <c r="C49" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D49" s="258" t="s">
+      <c r="D49" s="256" t="s">
         <v>976</v>
       </c>
       <c r="E49" s="175" t="s">
         <v>975</v>
       </c>
-      <c r="F49" s="259"/>
+      <c r="F49" s="257"/>
     </row>
     <row r="50" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="175" t="s">
@@ -24386,7 +24350,7 @@
       <c r="E50" s="175" t="s">
         <v>975</v>
       </c>
-      <c r="F50" s="259"/>
+      <c r="F50" s="257"/>
     </row>
     <row r="51" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="175" t="s">
@@ -24404,7 +24368,7 @@
       <c r="E51" s="175" t="s">
         <v>975</v>
       </c>
-      <c r="F51" s="259"/>
+      <c r="F51" s="257"/>
     </row>
     <row r="52" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="175" t="s">
@@ -24422,7 +24386,7 @@
       <c r="E52" s="175" t="s">
         <v>1315</v>
       </c>
-      <c r="F52" s="259"/>
+      <c r="F52" s="257"/>
     </row>
     <row r="53" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="175" t="s">
@@ -24440,7 +24404,7 @@
       <c r="E53" s="175" t="s">
         <v>103</v>
       </c>
-      <c r="F53" s="259"/>
+      <c r="F53" s="257"/>
     </row>
     <row r="54" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="175" t="s">
@@ -24458,7 +24422,7 @@
       <c r="E54" s="175" t="s">
         <v>97</v>
       </c>
-      <c r="F54" s="259"/>
+      <c r="F54" s="257"/>
     </row>
     <row r="55" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="175" t="s">
@@ -24470,13 +24434,13 @@
       <c r="C55" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="258" t="n">
+      <c r="D55" s="256" t="n">
         <v>49436004</v>
       </c>
       <c r="E55" s="175" t="s">
         <v>99</v>
       </c>
-      <c r="F55" s="259"/>
+      <c r="F55" s="257"/>
     </row>
     <row r="56" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="175" t="s">
@@ -24494,7 +24458,7 @@
       <c r="E56" s="175" t="s">
         <v>980</v>
       </c>
-      <c r="F56" s="259"/>
+      <c r="F56" s="257"/>
     </row>
     <row r="57" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="175" t="s">
@@ -24506,13 +24470,13 @@
       <c r="C57" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D57" s="258" t="s">
+      <c r="D57" s="256" t="s">
         <v>978</v>
       </c>
       <c r="E57" s="175" t="s">
         <v>977</v>
       </c>
-      <c r="F57" s="259"/>
+      <c r="F57" s="257"/>
     </row>
     <row r="58" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="175" t="s">
@@ -24530,7 +24494,7 @@
       <c r="E58" s="175" t="s">
         <v>977</v>
       </c>
-      <c r="F58" s="259"/>
+      <c r="F58" s="257"/>
     </row>
     <row r="59" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="175" t="s">
@@ -24548,7 +24512,7 @@
       <c r="E59" s="175" t="s">
         <v>1316</v>
       </c>
-      <c r="F59" s="259"/>
+      <c r="F59" s="257"/>
     </row>
     <row r="60" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="175" t="s">
@@ -24566,7 +24530,7 @@
       <c r="E60" s="175" t="s">
         <v>974</v>
       </c>
-      <c r="F60" s="259"/>
+      <c r="F60" s="257"/>
     </row>
     <row r="61" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="175" t="s">
@@ -24584,7 +24548,7 @@
       <c r="E61" s="175" t="s">
         <v>111</v>
       </c>
-      <c r="F61" s="259"/>
+      <c r="F61" s="257"/>
     </row>
     <row r="62" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="175" t="s">
@@ -24596,13 +24560,13 @@
       <c r="C62" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="258" t="n">
+      <c r="D62" s="256" t="n">
         <v>93689003</v>
       </c>
       <c r="E62" s="175" t="s">
         <v>107</v>
       </c>
-      <c r="F62" s="259"/>
+      <c r="F62" s="257"/>
     </row>
     <row r="63" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="175" t="s">
@@ -24614,13 +24578,13 @@
       <c r="C63" s="175" t="s">
         <v>720</v>
       </c>
-      <c r="D63" s="258" t="s">
+      <c r="D63" s="256" t="s">
         <v>896</v>
       </c>
       <c r="E63" s="175" t="s">
         <v>1318</v>
       </c>
-      <c r="F63" s="259"/>
+      <c r="F63" s="257"/>
     </row>
     <row r="64" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="175" t="s">
@@ -24638,7 +24602,7 @@
       <c r="E64" s="175" t="s">
         <v>1318</v>
       </c>
-      <c r="F64" s="259"/>
+      <c r="F64" s="257"/>
     </row>
     <row r="65" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="175" t="s">
@@ -24650,13 +24614,13 @@
       <c r="C65" s="175" t="s">
         <v>720</v>
       </c>
-      <c r="D65" s="258" t="s">
+      <c r="D65" s="256" t="s">
         <v>738</v>
       </c>
       <c r="E65" s="175" t="s">
         <v>739</v>
       </c>
-      <c r="F65" s="259"/>
+      <c r="F65" s="257"/>
     </row>
     <row r="66" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="175" t="s">
@@ -24674,7 +24638,7 @@
       <c r="E66" s="175" t="s">
         <v>739</v>
       </c>
-      <c r="F66" s="259"/>
+      <c r="F66" s="257"/>
     </row>
     <row r="67" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="175" t="s">
@@ -24692,7 +24656,7 @@
       <c r="E67" s="175" t="s">
         <v>1319</v>
       </c>
-      <c r="F67" s="259"/>
+      <c r="F67" s="257"/>
     </row>
     <row r="68" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="175" t="s">
@@ -24704,13 +24668,13 @@
       <c r="C68" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D68" s="258" t="s">
+      <c r="D68" s="256" t="s">
         <v>982</v>
       </c>
       <c r="E68" s="175" t="s">
         <v>981</v>
       </c>
-      <c r="F68" s="259"/>
+      <c r="F68" s="257"/>
     </row>
     <row r="69" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="175" t="s">
@@ -24728,7 +24692,7 @@
       <c r="E69" s="175" t="s">
         <v>981</v>
       </c>
-      <c r="F69" s="259"/>
+      <c r="F69" s="257"/>
     </row>
     <row r="70" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="175" t="s">
@@ -24746,7 +24710,7 @@
       <c r="E70" s="175" t="s">
         <v>981</v>
       </c>
-      <c r="F70" s="259"/>
+      <c r="F70" s="257"/>
     </row>
     <row r="71" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="175" t="s">
@@ -24764,7 +24728,7 @@
       <c r="E71" s="175" t="s">
         <v>1320</v>
       </c>
-      <c r="F71" s="259"/>
+      <c r="F71" s="257"/>
     </row>
     <row r="72" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="175" t="s">
@@ -24782,7 +24746,7 @@
       <c r="E72" s="175" t="s">
         <v>986</v>
       </c>
-      <c r="F72" s="259"/>
+      <c r="F72" s="257"/>
     </row>
     <row r="73" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="175" t="s">
@@ -24794,13 +24758,13 @@
       <c r="C73" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D73" s="258" t="s">
+      <c r="D73" s="256" t="s">
         <v>984</v>
       </c>
       <c r="E73" s="175" t="s">
         <v>983</v>
       </c>
-      <c r="F73" s="259"/>
+      <c r="F73" s="257"/>
     </row>
     <row r="74" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="175" t="s">
@@ -24818,7 +24782,7 @@
       <c r="E74" s="175" t="s">
         <v>983</v>
       </c>
-      <c r="F74" s="259"/>
+      <c r="F74" s="257"/>
     </row>
     <row r="75" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="175" t="s">
@@ -24836,7 +24800,7 @@
       <c r="E75" s="175" t="s">
         <v>1321</v>
       </c>
-      <c r="F75" s="259"/>
+      <c r="F75" s="257"/>
     </row>
     <row r="76" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="175" t="s">
@@ -24854,7 +24818,7 @@
       <c r="E76" s="175" t="s">
         <v>119</v>
       </c>
-      <c r="F76" s="259"/>
+      <c r="F76" s="257"/>
     </row>
     <row r="77" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="175" t="s">
@@ -24872,7 +24836,7 @@
       <c r="E77" s="175" t="s">
         <v>1324</v>
       </c>
-      <c r="F77" s="259"/>
+      <c r="F77" s="257"/>
     </row>
     <row r="78" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="175" t="s">
@@ -24884,13 +24848,13 @@
       <c r="C78" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="258" t="n">
+      <c r="D78" s="256" t="n">
         <v>201040000</v>
       </c>
       <c r="E78" s="175" t="s">
         <v>116</v>
       </c>
-      <c r="F78" s="259"/>
+      <c r="F78" s="257"/>
     </row>
     <row r="79" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="175" t="s">
@@ -24908,7 +24872,7 @@
       <c r="E79" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="F79" s="259"/>
+      <c r="F79" s="257"/>
     </row>
     <row r="80" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="175" t="s">
@@ -24926,7 +24890,7 @@
       <c r="E80" s="175" t="s">
         <v>1326</v>
       </c>
-      <c r="F80" s="259"/>
+      <c r="F80" s="257"/>
     </row>
     <row r="81" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="175" t="s">
@@ -24938,13 +24902,13 @@
       <c r="C81" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="258" t="n">
+      <c r="D81" s="256" t="n">
         <v>84114007</v>
       </c>
       <c r="E81" s="175" t="s">
         <v>124</v>
       </c>
-      <c r="F81" s="259"/>
+      <c r="F81" s="257"/>
     </row>
     <row r="82" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="175" t="s">
@@ -24962,7 +24926,7 @@
       <c r="E82" s="175" t="s">
         <v>143</v>
       </c>
-      <c r="F82" s="259"/>
+      <c r="F82" s="257"/>
     </row>
     <row r="83" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="175" t="s">
@@ -24980,7 +24944,7 @@
       <c r="E83" s="175" t="s">
         <v>145</v>
       </c>
-      <c r="F83" s="259"/>
+      <c r="F83" s="257"/>
     </row>
     <row r="84" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="175" t="s">
@@ -24998,7 +24962,7 @@
       <c r="E84" s="175" t="s">
         <v>139</v>
       </c>
-      <c r="F84" s="259"/>
+      <c r="F84" s="257"/>
     </row>
     <row r="85" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="175" t="s">
@@ -25010,13 +24974,13 @@
       <c r="C85" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="258" t="n">
+      <c r="D85" s="256" t="n">
         <v>55382008</v>
       </c>
       <c r="E85" s="175" t="s">
         <v>141</v>
       </c>
-      <c r="F85" s="259"/>
+      <c r="F85" s="257"/>
     </row>
     <row r="86" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="175" t="s">
@@ -25034,7 +24998,7 @@
       <c r="E86" s="175" t="s">
         <v>152</v>
       </c>
-      <c r="F86" s="259"/>
+      <c r="F86" s="257"/>
     </row>
     <row r="87" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="175" t="s">
@@ -25052,7 +25016,7 @@
       <c r="E87" s="175" t="s">
         <v>154</v>
       </c>
-      <c r="F87" s="259"/>
+      <c r="F87" s="257"/>
     </row>
     <row r="88" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="175" t="s">
@@ -25070,7 +25034,7 @@
       <c r="E88" s="175" t="s">
         <v>1327</v>
       </c>
-      <c r="F88" s="259"/>
+      <c r="F88" s="257"/>
     </row>
     <row r="89" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="175" t="s">
@@ -25082,13 +25046,13 @@
       <c r="C89" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D89" s="258" t="n">
+      <c r="D89" s="256" t="n">
         <v>432504007</v>
       </c>
       <c r="E89" s="175" t="s">
         <v>150</v>
       </c>
-      <c r="F89" s="259"/>
+      <c r="F89" s="257"/>
     </row>
     <row r="90" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="175" t="s">
@@ -25106,7 +25070,7 @@
       <c r="E90" s="175" t="s">
         <v>160</v>
       </c>
-      <c r="F90" s="259"/>
+      <c r="F90" s="257"/>
     </row>
     <row r="91" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="175" t="s">
@@ -25124,7 +25088,7 @@
       <c r="E91" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="F91" s="259"/>
+      <c r="F91" s="257"/>
     </row>
     <row r="92" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="175" t="s">
@@ -25142,7 +25106,7 @@
       <c r="E92" s="175" t="s">
         <v>1328</v>
       </c>
-      <c r="F92" s="259"/>
+      <c r="F92" s="257"/>
     </row>
     <row r="93" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="175" t="s">
@@ -25154,13 +25118,13 @@
       <c r="C93" s="175" t="s">
         <v>1329</v>
       </c>
-      <c r="D93" s="258" t="s">
+      <c r="D93" s="256" t="s">
         <v>159</v>
       </c>
       <c r="E93" s="175" t="s">
         <v>156</v>
       </c>
-      <c r="F93" s="259"/>
+      <c r="F93" s="257"/>
     </row>
     <row r="94" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="175" t="s">
@@ -25172,13 +25136,13 @@
       <c r="C94" s="175" t="s">
         <v>720</v>
       </c>
-      <c r="D94" s="258" t="s">
+      <c r="D94" s="256" t="s">
         <v>1330</v>
       </c>
       <c r="E94" s="175" t="s">
         <v>745</v>
       </c>
-      <c r="F94" s="259"/>
+      <c r="F94" s="257"/>
     </row>
     <row r="95" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="175" t="s">
@@ -25196,7 +25160,7 @@
       <c r="E95" s="175" t="s">
         <v>745</v>
       </c>
-      <c r="F95" s="259"/>
+      <c r="F95" s="257"/>
     </row>
     <row r="96" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="175" t="s">
@@ -25214,7 +25178,7 @@
       <c r="E96" s="175" t="s">
         <v>1331</v>
       </c>
-      <c r="F96" s="259"/>
+      <c r="F96" s="257"/>
     </row>
     <row r="97" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="175" t="s">
@@ -25232,7 +25196,7 @@
       <c r="E97" s="175" t="s">
         <v>171</v>
       </c>
-      <c r="F97" s="259"/>
+      <c r="F97" s="257"/>
     </row>
     <row r="98" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="175" t="s">
@@ -25250,7 +25214,7 @@
       <c r="E98" s="175" t="s">
         <v>1333</v>
       </c>
-      <c r="F98" s="259"/>
+      <c r="F98" s="257"/>
     </row>
     <row r="99" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="175" t="s">
@@ -25262,13 +25226,13 @@
       <c r="C99" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D99" s="258" t="n">
+      <c r="D99" s="256" t="n">
         <v>413838009</v>
       </c>
       <c r="E99" s="175" t="s">
         <v>167</v>
       </c>
-      <c r="F99" s="259"/>
+      <c r="F99" s="257"/>
     </row>
     <row r="100" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="175" t="s">
@@ -25286,7 +25250,7 @@
       <c r="E100" s="175" t="s">
         <v>169</v>
       </c>
-      <c r="F100" s="259"/>
+      <c r="F100" s="257"/>
     </row>
     <row r="101" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="175" t="s">
@@ -25304,7 +25268,7 @@
       <c r="E101" s="175" t="s">
         <v>178</v>
       </c>
-      <c r="F101" s="259"/>
+      <c r="F101" s="257"/>
     </row>
     <row r="102" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="175" t="s">
@@ -25322,7 +25286,7 @@
       <c r="E102" s="175" t="s">
         <v>180</v>
       </c>
-      <c r="F102" s="259"/>
+      <c r="F102" s="257"/>
     </row>
     <row r="103" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="175" t="s">
@@ -25340,7 +25304,7 @@
       <c r="E103" s="175" t="s">
         <v>182</v>
       </c>
-      <c r="F103" s="259"/>
+      <c r="F103" s="257"/>
     </row>
     <row r="104" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="175" t="s">
@@ -25352,13 +25316,13 @@
       <c r="C104" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D104" s="258" t="n">
+      <c r="D104" s="256" t="n">
         <v>111354009</v>
       </c>
       <c r="E104" s="175" t="s">
         <v>176</v>
       </c>
-      <c r="F104" s="259"/>
+      <c r="F104" s="257"/>
     </row>
     <row r="105" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="175" t="s">
@@ -25376,7 +25340,7 @@
       <c r="E105" s="175" t="s">
         <v>1335</v>
       </c>
-      <c r="F105" s="259"/>
+      <c r="F105" s="257"/>
     </row>
     <row r="106" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="175" t="s">
@@ -25394,7 +25358,7 @@
       <c r="E106" s="175" t="s">
         <v>1337</v>
       </c>
-      <c r="F106" s="259"/>
+      <c r="F106" s="257"/>
     </row>
     <row r="107" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="175" t="s">
@@ -25406,13 +25370,13 @@
       <c r="C107" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D107" s="258" t="n">
+      <c r="D107" s="256" t="n">
         <v>425369003</v>
       </c>
       <c r="E107" s="175" t="s">
         <v>185</v>
       </c>
-      <c r="F107" s="259"/>
+      <c r="F107" s="257"/>
     </row>
     <row r="108" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="175" t="s">
@@ -25430,7 +25394,7 @@
       <c r="E108" s="175" t="s">
         <v>219</v>
       </c>
-      <c r="F108" s="259"/>
+      <c r="F108" s="257"/>
     </row>
     <row r="109" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="175" t="s">
@@ -25448,7 +25412,7 @@
       <c r="E109" s="175" t="s">
         <v>215</v>
       </c>
-      <c r="F109" s="259"/>
+      <c r="F109" s="257"/>
     </row>
     <row r="110" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="175" t="s">
@@ -25460,13 +25424,13 @@
       <c r="C110" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D110" s="258" t="n">
+      <c r="D110" s="256" t="n">
         <v>431857002</v>
       </c>
       <c r="E110" s="175" t="s">
         <v>215</v>
       </c>
-      <c r="F110" s="259"/>
+      <c r="F110" s="257"/>
     </row>
     <row r="111" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="175" t="s">
@@ -25484,7 +25448,7 @@
       <c r="E111" s="175" t="s">
         <v>227</v>
       </c>
-      <c r="F111" s="259"/>
+      <c r="F111" s="257"/>
     </row>
     <row r="112" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="175" t="s">
@@ -25502,7 +25466,7 @@
       <c r="E112" s="175" t="s">
         <v>223</v>
       </c>
-      <c r="F112" s="259"/>
+      <c r="F112" s="257"/>
     </row>
     <row r="113" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="175" t="s">
@@ -25514,13 +25478,13 @@
       <c r="C113" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="258" t="n">
+      <c r="D113" s="256" t="n">
         <v>433146000</v>
       </c>
       <c r="E113" s="175" t="s">
         <v>223</v>
       </c>
-      <c r="F113" s="259"/>
+      <c r="F113" s="257"/>
     </row>
     <row r="114" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="175" t="s">
@@ -25538,7 +25502,7 @@
       <c r="E114" s="175" t="s">
         <v>235</v>
       </c>
-      <c r="F114" s="259"/>
+      <c r="F114" s="257"/>
     </row>
     <row r="115" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="175" t="s">
@@ -25556,7 +25520,7 @@
       <c r="E115" s="175" t="s">
         <v>1340</v>
       </c>
-      <c r="F115" s="259"/>
+      <c r="F115" s="257"/>
     </row>
     <row r="116" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="175" t="s">
@@ -25568,13 +25532,13 @@
       <c r="C116" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D116" s="258" t="n">
+      <c r="D116" s="256" t="n">
         <v>233962007</v>
       </c>
       <c r="E116" s="175" t="s">
         <v>231</v>
       </c>
-      <c r="F116" s="259"/>
+      <c r="F116" s="257"/>
     </row>
     <row r="117" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="175" t="s">
@@ -25592,7 +25556,7 @@
       <c r="E117" s="175" t="s">
         <v>243</v>
       </c>
-      <c r="F117" s="259"/>
+      <c r="F117" s="257"/>
     </row>
     <row r="118" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="175" t="s">
@@ -25610,7 +25574,7 @@
       <c r="E118" s="175" t="s">
         <v>245</v>
       </c>
-      <c r="F118" s="259"/>
+      <c r="F118" s="257"/>
     </row>
     <row r="119" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="175" t="s">
@@ -25622,13 +25586,13 @@
       <c r="C119" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D119" s="258" t="n">
+      <c r="D119" s="256" t="n">
         <v>445144002</v>
       </c>
       <c r="E119" s="175" t="s">
         <v>240</v>
       </c>
-      <c r="F119" s="259"/>
+      <c r="F119" s="257"/>
     </row>
     <row r="120" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="175" t="s">
@@ -25646,7 +25610,7 @@
       <c r="E120" s="175" t="s">
         <v>256</v>
       </c>
-      <c r="F120" s="259"/>
+      <c r="F120" s="257"/>
     </row>
     <row r="121" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="175" t="s">
@@ -25664,7 +25628,7 @@
       <c r="E121" s="175" t="s">
         <v>258</v>
       </c>
-      <c r="F121" s="259"/>
+      <c r="F121" s="257"/>
     </row>
     <row r="122" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="175" t="s">
@@ -25682,7 +25646,7 @@
       <c r="E122" s="175" t="s">
         <v>260</v>
       </c>
-      <c r="F122" s="259"/>
+      <c r="F122" s="257"/>
     </row>
     <row r="123" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="175" t="s">
@@ -25694,13 +25658,13 @@
       <c r="C123" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D123" s="258" t="n">
+      <c r="D123" s="256" t="n">
         <v>420436000</v>
       </c>
       <c r="E123" s="175" t="s">
         <v>254</v>
       </c>
-      <c r="F123" s="259"/>
+      <c r="F123" s="257"/>
     </row>
     <row r="124" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="175" t="s">
@@ -25718,7 +25682,7 @@
       <c r="E124" s="175" t="s">
         <v>265</v>
       </c>
-      <c r="F124" s="259"/>
+      <c r="F124" s="257"/>
     </row>
     <row r="125" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="175" t="s">
@@ -25736,7 +25700,7 @@
       <c r="E125" s="175" t="s">
         <v>267</v>
       </c>
-      <c r="F125" s="259"/>
+      <c r="F125" s="257"/>
     </row>
     <row r="126" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="175" t="s">
@@ -25754,7 +25718,7 @@
       <c r="E126" s="175" t="s">
         <v>269</v>
       </c>
-      <c r="F126" s="259"/>
+      <c r="F126" s="257"/>
     </row>
     <row r="127" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="175" t="s">
@@ -25766,13 +25730,13 @@
       <c r="C127" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D127" s="258" t="n">
+      <c r="D127" s="256" t="n">
         <v>423263001</v>
       </c>
       <c r="E127" s="175" t="s">
         <v>263</v>
       </c>
-      <c r="F127" s="259"/>
+      <c r="F127" s="257"/>
     </row>
     <row r="128" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="175" t="s">
@@ -25790,7 +25754,7 @@
       <c r="E128" s="175" t="s">
         <v>274</v>
       </c>
-      <c r="F128" s="259"/>
+      <c r="F128" s="257"/>
     </row>
     <row r="129" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="175" t="s">
@@ -25808,7 +25772,7 @@
       <c r="E129" s="175" t="s">
         <v>283</v>
       </c>
-      <c r="F129" s="259"/>
+      <c r="F129" s="257"/>
     </row>
     <row r="130" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="175" t="s">
@@ -25826,7 +25790,7 @@
       <c r="E130" s="175" t="s">
         <v>292</v>
       </c>
-      <c r="F130" s="259"/>
+      <c r="F130" s="257"/>
     </row>
     <row r="131" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="175" t="s">
@@ -25844,7 +25808,7 @@
       <c r="E131" s="175" t="s">
         <v>301</v>
       </c>
-      <c r="F131" s="259"/>
+      <c r="F131" s="257"/>
     </row>
     <row r="132" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="175" t="s">
@@ -25862,7 +25826,7 @@
       <c r="E132" s="175" t="s">
         <v>276</v>
       </c>
-      <c r="F132" s="259"/>
+      <c r="F132" s="257"/>
     </row>
     <row r="133" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="175" t="s">
@@ -25880,7 +25844,7 @@
       <c r="E133" s="175" t="s">
         <v>278</v>
       </c>
-      <c r="F133" s="259"/>
+      <c r="F133" s="257"/>
     </row>
     <row r="134" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="175" t="s">
@@ -25892,13 +25856,13 @@
       <c r="C134" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D134" s="258" t="n">
+      <c r="D134" s="256" t="n">
         <v>421895002</v>
       </c>
       <c r="E134" s="175" t="s">
         <v>272</v>
       </c>
-      <c r="F134" s="259"/>
+      <c r="F134" s="257"/>
     </row>
     <row r="135" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="175" t="s">
@@ -25916,7 +25880,7 @@
       <c r="E135" s="175" t="s">
         <v>310</v>
       </c>
-      <c r="F135" s="259"/>
+      <c r="F135" s="257"/>
     </row>
     <row r="136" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="175" t="s">
@@ -25934,7 +25898,7 @@
       <c r="E136" s="175" t="s">
         <v>285</v>
       </c>
-      <c r="F136" s="259"/>
+      <c r="F136" s="257"/>
     </row>
     <row r="137" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="175" t="s">
@@ -25952,7 +25916,7 @@
       <c r="E137" s="175" t="s">
         <v>287</v>
       </c>
-      <c r="F137" s="259"/>
+      <c r="F137" s="257"/>
     </row>
     <row r="138" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="175" t="s">
@@ -25964,13 +25928,13 @@
       <c r="C138" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D138" s="258" t="n">
+      <c r="D138" s="256" t="n">
         <v>421707005</v>
       </c>
       <c r="E138" s="175" t="s">
         <v>281</v>
       </c>
-      <c r="F138" s="259"/>
+      <c r="F138" s="257"/>
     </row>
     <row r="139" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="175" t="s">
@@ -25988,7 +25952,7 @@
       <c r="E139" s="175" t="s">
         <v>294</v>
       </c>
-      <c r="F139" s="259"/>
+      <c r="F139" s="257"/>
     </row>
     <row r="140" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="175" t="s">
@@ -26006,7 +25970,7 @@
       <c r="E140" s="175" t="s">
         <v>1351</v>
       </c>
-      <c r="F140" s="259"/>
+      <c r="F140" s="257"/>
     </row>
     <row r="141" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="175" t="s">
@@ -26018,13 +25982,13 @@
       <c r="C141" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D141" s="258" t="n">
+      <c r="D141" s="256" t="n">
         <v>395204000</v>
       </c>
       <c r="E141" s="175" t="s">
         <v>290</v>
       </c>
-      <c r="F141" s="259"/>
+      <c r="F141" s="257"/>
     </row>
     <row r="142" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="175" t="s">
@@ -26042,7 +26006,7 @@
       <c r="E142" s="175" t="s">
         <v>974</v>
       </c>
-      <c r="F142" s="259"/>
+      <c r="F142" s="257"/>
     </row>
     <row r="143" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="175" t="s">
@@ -26060,7 +26024,7 @@
       <c r="E143" s="175" t="s">
         <v>319</v>
       </c>
-      <c r="F143" s="259"/>
+      <c r="F143" s="257"/>
     </row>
     <row r="144" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="175" t="s">
@@ -26078,7 +26042,7 @@
       <c r="E144" s="175" t="s">
         <v>303</v>
       </c>
-      <c r="F144" s="259"/>
+      <c r="F144" s="257"/>
     </row>
     <row r="145" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="175" t="s">
@@ -26090,13 +26054,13 @@
       <c r="C145" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D145" s="258" t="n">
+      <c r="D145" s="256" t="n">
         <v>120731000119103</v>
       </c>
       <c r="E145" s="175" t="s">
         <v>299</v>
       </c>
-      <c r="F145" s="259"/>
+      <c r="F145" s="257"/>
     </row>
     <row r="146" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="175" t="s">
@@ -26114,7 +26078,7 @@
       <c r="E146" s="175" t="s">
         <v>328</v>
       </c>
-      <c r="F146" s="259"/>
+      <c r="F146" s="257"/>
     </row>
     <row r="147" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="175" t="s">
@@ -26132,7 +26096,7 @@
       <c r="E147" s="175" t="s">
         <v>312</v>
       </c>
-      <c r="F147" s="259"/>
+      <c r="F147" s="257"/>
     </row>
     <row r="148" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="175" t="s">
@@ -26150,7 +26114,7 @@
       <c r="E148" s="175" t="s">
         <v>314</v>
       </c>
-      <c r="F148" s="259"/>
+      <c r="F148" s="257"/>
     </row>
     <row r="149" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="175" t="s">
@@ -26162,13 +26126,13 @@
       <c r="C149" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D149" s="258" t="n">
+      <c r="D149" s="256" t="n">
         <v>420662003</v>
       </c>
       <c r="E149" s="175" t="s">
         <v>308</v>
       </c>
-      <c r="F149" s="259"/>
+      <c r="F149" s="257"/>
     </row>
     <row r="150" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="175" t="s">
@@ -26186,7 +26150,7 @@
       <c r="E150" s="175" t="s">
         <v>335</v>
       </c>
-      <c r="F150" s="259"/>
+      <c r="F150" s="257"/>
     </row>
     <row r="151" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="175" t="s">
@@ -26204,7 +26168,7 @@
       <c r="E151" s="175" t="s">
         <v>321</v>
       </c>
-      <c r="F151" s="259"/>
+      <c r="F151" s="257"/>
     </row>
     <row r="152" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="175" t="s">
@@ -26222,7 +26186,7 @@
       <c r="E152" s="175" t="s">
         <v>323</v>
       </c>
-      <c r="F152" s="259"/>
+      <c r="F152" s="257"/>
     </row>
     <row r="153" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="175" t="s">
@@ -26234,13 +26198,13 @@
       <c r="C153" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D153" s="258" t="n">
+      <c r="D153" s="256" t="n">
         <v>127013003</v>
       </c>
       <c r="E153" s="175" t="s">
         <v>317</v>
       </c>
-      <c r="F153" s="259"/>
+      <c r="F153" s="257"/>
     </row>
     <row r="154" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="175" t="s">
@@ -26258,7 +26222,7 @@
       <c r="E154" s="175" t="s">
         <v>330</v>
       </c>
-      <c r="F154" s="259"/>
+      <c r="F154" s="257"/>
     </row>
     <row r="155" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="175" t="s">
@@ -26276,7 +26240,7 @@
       <c r="E155" s="175" t="s">
         <v>1356</v>
       </c>
-      <c r="F155" s="259"/>
+      <c r="F155" s="257"/>
     </row>
     <row r="156" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="175" t="s">
@@ -26288,13 +26252,13 @@
       <c r="C156" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D156" s="258" t="n">
+      <c r="D156" s="256" t="n">
         <v>421847006</v>
       </c>
       <c r="E156" s="175" t="s">
         <v>326</v>
       </c>
-      <c r="F156" s="259"/>
+      <c r="F156" s="257"/>
     </row>
     <row r="157" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="175" t="s">
@@ -26312,7 +26276,7 @@
       <c r="E157" s="175" t="s">
         <v>323</v>
       </c>
-      <c r="F157" s="259"/>
+      <c r="F157" s="257"/>
     </row>
     <row r="158" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="175" t="s">
@@ -26324,13 +26288,13 @@
       <c r="C158" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D158" s="258" t="n">
+      <c r="D158" s="256" t="n">
         <v>127013003</v>
       </c>
       <c r="E158" s="175" t="s">
         <v>317</v>
       </c>
-      <c r="F158" s="259"/>
+      <c r="F158" s="257"/>
     </row>
     <row r="159" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="175" t="s">
@@ -26348,7 +26312,7 @@
       <c r="E159" s="175" t="s">
         <v>344</v>
       </c>
-      <c r="F159" s="259"/>
+      <c r="F159" s="257"/>
     </row>
     <row r="160" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="175" t="s">
@@ -26366,7 +26330,7 @@
       <c r="E160" s="175" t="s">
         <v>337</v>
       </c>
-      <c r="F160" s="259"/>
+      <c r="F160" s="257"/>
     </row>
     <row r="161" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="175" t="s">
@@ -26384,7 +26348,7 @@
       <c r="E161" s="175" t="s">
         <v>974</v>
       </c>
-      <c r="F161" s="259"/>
+      <c r="F161" s="257"/>
     </row>
     <row r="162" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="175" t="s">
@@ -26402,7 +26366,7 @@
       <c r="E162" s="175" t="s">
         <v>346</v>
       </c>
-      <c r="F162" s="259"/>
+      <c r="F162" s="257"/>
     </row>
     <row r="163" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="175" t="s">
@@ -26420,7 +26384,7 @@
       <c r="E163" s="175" t="s">
         <v>1360</v>
       </c>
-      <c r="F163" s="259"/>
+      <c r="F163" s="257"/>
     </row>
     <row r="164" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="175" t="s">
@@ -26432,7 +26396,7 @@
       <c r="C164" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D164" s="258" t="n">
+      <c r="D164" s="256" t="n">
         <v>420422005</v>
       </c>
       <c r="E164" s="175" t="s">
@@ -26455,7 +26419,7 @@
       <c r="E165" s="175" t="s">
         <v>974</v>
       </c>
-      <c r="F165" s="259"/>
+      <c r="F165" s="257"/>
     </row>
     <row r="166" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="175" t="s">
@@ -26473,7 +26437,7 @@
       <c r="E166" s="175" t="s">
         <v>285</v>
       </c>
-      <c r="F166" s="259"/>
+      <c r="F166" s="257"/>
     </row>
     <row r="167" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="175" t="s">
@@ -26491,7 +26455,7 @@
       <c r="E167" s="175" t="s">
         <v>353</v>
       </c>
-      <c r="F167" s="259"/>
+      <c r="F167" s="257"/>
     </row>
     <row r="168" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="175" t="s">
@@ -26509,7 +26473,7 @@
       <c r="E168" s="175" t="s">
         <v>355</v>
       </c>
-      <c r="F168" s="259"/>
+      <c r="F168" s="257"/>
     </row>
     <row r="169" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="175" t="s">
@@ -26521,13 +26485,13 @@
       <c r="C169" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D169" s="258" t="n">
+      <c r="D169" s="256" t="n">
         <v>49455004</v>
       </c>
       <c r="E169" s="175" t="s">
         <v>351</v>
       </c>
-      <c r="F169" s="259"/>
+      <c r="F169" s="257"/>
     </row>
     <row r="170" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="175" t="s">
@@ -26539,13 +26503,13 @@
       <c r="C170" s="175" t="s">
         <v>720</v>
       </c>
-      <c r="D170" s="258" t="s">
+      <c r="D170" s="256" t="s">
         <v>753</v>
       </c>
       <c r="E170" s="175" t="s">
         <v>754</v>
       </c>
-      <c r="F170" s="259"/>
+      <c r="F170" s="257"/>
     </row>
     <row r="171" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="175" t="s">
@@ -26563,7 +26527,7 @@
       <c r="E171" s="175" t="s">
         <v>754</v>
       </c>
-      <c r="F171" s="259"/>
+      <c r="F171" s="257"/>
     </row>
     <row r="172" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="175" t="s">
@@ -26581,7 +26545,7 @@
       <c r="E172" s="175" t="s">
         <v>1363</v>
       </c>
-      <c r="F172" s="259"/>
+      <c r="F172" s="257"/>
     </row>
     <row r="173" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="175" t="s">
@@ -26599,7 +26563,7 @@
       <c r="E173" s="175" t="s">
         <v>990</v>
       </c>
-      <c r="F173" s="259"/>
+      <c r="F173" s="257"/>
     </row>
     <row r="174" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="175" t="s">
@@ -26611,13 +26575,13 @@
       <c r="C174" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D174" s="258" t="s">
+      <c r="D174" s="256" t="s">
         <v>988</v>
       </c>
       <c r="E174" s="175" t="s">
         <v>987</v>
       </c>
-      <c r="F174" s="259"/>
+      <c r="F174" s="257"/>
     </row>
     <row r="175" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="175" t="s">
@@ -26635,7 +26599,7 @@
       <c r="E175" s="175" t="s">
         <v>987</v>
       </c>
-      <c r="F175" s="259"/>
+      <c r="F175" s="257"/>
     </row>
     <row r="176" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="175" t="s">
@@ -26653,7 +26617,7 @@
       <c r="E176" s="175" t="s">
         <v>1364</v>
       </c>
-      <c r="F176" s="259"/>
+      <c r="F176" s="257"/>
     </row>
     <row r="177" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="175" t="s">
@@ -26671,7 +26635,7 @@
       <c r="E177" s="175" t="s">
         <v>993</v>
       </c>
-      <c r="F177" s="259"/>
+      <c r="F177" s="257"/>
     </row>
     <row r="178" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="175" t="s">
@@ -26683,13 +26647,13 @@
       <c r="C178" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D178" s="258" t="s">
+      <c r="D178" s="256" t="s">
         <v>992</v>
       </c>
       <c r="E178" s="175" t="s">
         <v>991</v>
       </c>
-      <c r="F178" s="259"/>
+      <c r="F178" s="257"/>
     </row>
     <row r="179" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="175" t="s">
@@ -26707,7 +26671,7 @@
       <c r="E179" s="175" t="s">
         <v>991</v>
       </c>
-      <c r="F179" s="259"/>
+      <c r="F179" s="257"/>
     </row>
     <row r="180" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="175" t="s">
@@ -26725,7 +26689,7 @@
       <c r="E180" s="175" t="s">
         <v>1365</v>
       </c>
-      <c r="F180" s="259"/>
+      <c r="F180" s="257"/>
     </row>
     <row r="181" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="175" t="s">
@@ -26737,13 +26701,13 @@
       <c r="C181" s="175" t="s">
         <v>720</v>
       </c>
-      <c r="D181" s="258" t="s">
+      <c r="D181" s="256" t="s">
         <v>1366</v>
       </c>
       <c r="E181" s="175" t="s">
         <v>1367</v>
       </c>
-      <c r="F181" s="259"/>
+      <c r="F181" s="257"/>
     </row>
     <row r="182" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="175" t="s">
@@ -26761,7 +26725,7 @@
       <c r="E182" s="175" t="s">
         <v>1367</v>
       </c>
-      <c r="F182" s="259"/>
+      <c r="F182" s="257"/>
     </row>
     <row r="183" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="175" t="s">
@@ -26779,7 +26743,7 @@
       <c r="E183" s="175" t="s">
         <v>1368</v>
       </c>
-      <c r="F183" s="259"/>
+      <c r="F183" s="257"/>
     </row>
     <row r="184" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="175" t="s">
@@ -26797,7 +26761,7 @@
       <c r="E184" s="175" t="s">
         <v>1369</v>
       </c>
-      <c r="F184" s="259"/>
+      <c r="F184" s="257"/>
     </row>
     <row r="185" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="175" t="s">
@@ -26809,13 +26773,13 @@
       <c r="C185" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D185" s="258" t="n">
+      <c r="D185" s="256" t="n">
         <v>713634000</v>
       </c>
       <c r="E185" s="175" t="s">
         <v>1369</v>
       </c>
-      <c r="F185" s="259"/>
+      <c r="F185" s="257"/>
     </row>
     <row r="186" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="175" t="s">
@@ -26833,7 +26797,7 @@
       <c r="E186" s="175" t="s">
         <v>368</v>
       </c>
-      <c r="F186" s="259"/>
+      <c r="F186" s="257"/>
     </row>
     <row r="187" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="175" t="s">
@@ -26851,7 +26815,7 @@
       <c r="E187" s="175" t="s">
         <v>1370</v>
       </c>
-      <c r="F187" s="259"/>
+      <c r="F187" s="257"/>
     </row>
     <row r="188" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="175" t="s">
@@ -26863,13 +26827,13 @@
       <c r="C188" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D188" s="258" t="n">
+      <c r="D188" s="256" t="n">
         <v>36024000</v>
       </c>
       <c r="E188" s="175" t="s">
         <v>1371</v>
       </c>
-      <c r="F188" s="259"/>
+      <c r="F188" s="257"/>
     </row>
     <row r="189" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="175" t="s">
@@ -26887,7 +26851,7 @@
       <c r="E189" s="175" t="s">
         <v>996</v>
       </c>
-      <c r="F189" s="259"/>
+      <c r="F189" s="257"/>
     </row>
     <row r="190" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="175" t="s">
@@ -26899,13 +26863,13 @@
       <c r="C190" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D190" s="258" t="s">
+      <c r="D190" s="256" t="s">
         <v>995</v>
       </c>
       <c r="E190" s="175" t="s">
         <v>994</v>
       </c>
-      <c r="F190" s="259"/>
+      <c r="F190" s="257"/>
     </row>
     <row r="191" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="175" t="s">
@@ -26923,7 +26887,7 @@
       <c r="E191" s="175" t="s">
         <v>994</v>
       </c>
-      <c r="F191" s="259"/>
+      <c r="F191" s="257"/>
     </row>
     <row r="192" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="175" t="s">
@@ -26941,7 +26905,7 @@
       <c r="E192" s="175" t="s">
         <v>1372</v>
       </c>
-      <c r="F192" s="259"/>
+      <c r="F192" s="257"/>
     </row>
     <row r="193" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="175" t="s">
@@ -26959,7 +26923,7 @@
       <c r="E193" s="175" t="s">
         <v>999</v>
       </c>
-      <c r="F193" s="259"/>
+      <c r="F193" s="257"/>
     </row>
     <row r="194" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="175" t="s">
@@ -26971,13 +26935,13 @@
       <c r="C194" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D194" s="258" t="s">
+      <c r="D194" s="256" t="s">
         <v>998</v>
       </c>
       <c r="E194" s="175" t="s">
         <v>997</v>
       </c>
-      <c r="F194" s="259"/>
+      <c r="F194" s="257"/>
     </row>
     <row r="195" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="175" t="s">
@@ -26995,7 +26959,7 @@
       <c r="E195" s="175" t="s">
         <v>997</v>
       </c>
-      <c r="F195" s="259"/>
+      <c r="F195" s="257"/>
     </row>
     <row r="196" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="175" t="s">
@@ -27013,7 +26977,7 @@
       <c r="E196" s="175" t="s">
         <v>1373</v>
       </c>
-      <c r="F196" s="259"/>
+      <c r="F196" s="257"/>
     </row>
     <row r="197" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="175" t="s">
@@ -27031,7 +26995,7 @@
       <c r="E197" s="175" t="s">
         <v>1002</v>
       </c>
-      <c r="F197" s="259"/>
+      <c r="F197" s="257"/>
     </row>
     <row r="198" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="175" t="s">
@@ -27043,13 +27007,13 @@
       <c r="C198" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D198" s="258" t="s">
+      <c r="D198" s="256" t="s">
         <v>1001</v>
       </c>
       <c r="E198" s="175" t="s">
         <v>1000</v>
       </c>
-      <c r="F198" s="259"/>
+      <c r="F198" s="257"/>
     </row>
     <row r="199" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="175" t="s">
@@ -27067,7 +27031,7 @@
       <c r="E199" s="175" t="s">
         <v>1000</v>
       </c>
-      <c r="F199" s="259"/>
+      <c r="F199" s="257"/>
     </row>
     <row r="200" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="175" t="s">
@@ -27085,7 +27049,7 @@
       <c r="E200" s="175" t="s">
         <v>1374</v>
       </c>
-      <c r="F200" s="259"/>
+      <c r="F200" s="257"/>
     </row>
     <row r="201" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="175" t="s">
@@ -27103,7 +27067,7 @@
       <c r="E201" s="175" t="s">
         <v>1006</v>
       </c>
-      <c r="F201" s="259"/>
+      <c r="F201" s="257"/>
     </row>
     <row r="202" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="175" t="s">
@@ -27115,13 +27079,13 @@
       <c r="C202" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D202" s="258" t="s">
+      <c r="D202" s="256" t="s">
         <v>1005</v>
       </c>
       <c r="E202" s="175" t="s">
         <v>1004</v>
       </c>
-      <c r="F202" s="259"/>
+      <c r="F202" s="257"/>
     </row>
     <row r="203" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="175" t="s">
@@ -27139,7 +27103,7 @@
       <c r="E203" s="175" t="s">
         <v>1004</v>
       </c>
-      <c r="F203" s="259"/>
+      <c r="F203" s="257"/>
     </row>
     <row r="204" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="175" t="s">
@@ -27157,7 +27121,7 @@
       <c r="E204" s="175" t="s">
         <v>1375</v>
       </c>
-      <c r="F204" s="259"/>
+      <c r="F204" s="257"/>
     </row>
     <row r="205" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="175" t="s">
@@ -27169,13 +27133,13 @@
       <c r="C205" s="175" t="s">
         <v>720</v>
       </c>
-      <c r="D205" s="258" t="s">
+      <c r="D205" s="256" t="s">
         <v>768</v>
       </c>
       <c r="E205" s="175" t="s">
         <v>769</v>
       </c>
-      <c r="F205" s="259"/>
+      <c r="F205" s="257"/>
     </row>
     <row r="206" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="175" t="s">
@@ -27193,7 +27157,7 @@
       <c r="E206" s="175" t="s">
         <v>769</v>
       </c>
-      <c r="F206" s="259"/>
+      <c r="F206" s="257"/>
     </row>
     <row r="207" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="175" t="s">
@@ -27211,7 +27175,7 @@
       <c r="E207" s="175" t="s">
         <v>1376</v>
       </c>
-      <c r="F207" s="259"/>
+      <c r="F207" s="257"/>
     </row>
     <row r="208" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="175" t="s">
@@ -27223,13 +27187,13 @@
       <c r="C208" s="175" t="s">
         <v>720</v>
       </c>
-      <c r="D208" s="258" t="s">
+      <c r="D208" s="256" t="s">
         <v>1377</v>
       </c>
       <c r="E208" s="175" t="s">
         <v>776</v>
       </c>
-      <c r="F208" s="259"/>
+      <c r="F208" s="257"/>
     </row>
     <row r="209" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="175" t="s">
@@ -27247,7 +27211,7 @@
       <c r="E209" s="175" t="s">
         <v>776</v>
       </c>
-      <c r="F209" s="259"/>
+      <c r="F209" s="257"/>
     </row>
     <row r="210" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="175" t="s">
@@ -27265,7 +27229,7 @@
       <c r="E210" s="175" t="s">
         <v>1378</v>
       </c>
-      <c r="F210" s="259"/>
+      <c r="F210" s="257"/>
     </row>
     <row r="211" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="175" t="s">
@@ -27277,13 +27241,13 @@
       <c r="C211" s="175" t="s">
         <v>720</v>
       </c>
-      <c r="D211" s="258" t="s">
+      <c r="D211" s="256" t="s">
         <v>783</v>
       </c>
       <c r="E211" s="175" t="s">
         <v>784</v>
       </c>
-      <c r="F211" s="259"/>
+      <c r="F211" s="257"/>
     </row>
     <row r="212" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="175" t="s">
@@ -27301,7 +27265,7 @@
       <c r="E212" s="175" t="s">
         <v>784</v>
       </c>
-      <c r="F212" s="259"/>
+      <c r="F212" s="257"/>
     </row>
     <row r="213" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="175" t="s">
@@ -27319,7 +27283,7 @@
       <c r="E213" s="175" t="s">
         <v>1379</v>
       </c>
-      <c r="F213" s="259"/>
+      <c r="F213" s="257"/>
     </row>
     <row r="214" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="175" t="s">
@@ -27337,7 +27301,7 @@
       <c r="E214" s="175" t="s">
         <v>376</v>
       </c>
-      <c r="F214" s="259"/>
+      <c r="F214" s="257"/>
     </row>
     <row r="215" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="175" t="s">
@@ -27355,7 +27319,7 @@
       <c r="E215" s="175" t="s">
         <v>1380</v>
       </c>
-      <c r="F215" s="259"/>
+      <c r="F215" s="257"/>
     </row>
     <row r="216" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="175" t="s">
@@ -27367,13 +27331,13 @@
       <c r="C216" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D216" s="258" t="n">
+      <c r="D216" s="256" t="n">
         <v>59927004</v>
       </c>
       <c r="E216" s="175" t="s">
         <v>373</v>
       </c>
-      <c r="F216" s="259"/>
+      <c r="F216" s="257"/>
     </row>
     <row r="217" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="175" t="s">
@@ -27391,7 +27355,7 @@
       <c r="E217" s="175" t="s">
         <v>384</v>
       </c>
-      <c r="F217" s="259"/>
+      <c r="F217" s="257"/>
     </row>
     <row r="218" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="175" t="s">
@@ -27409,7 +27373,7 @@
       <c r="E218" s="175" t="s">
         <v>1382</v>
       </c>
-      <c r="F218" s="259"/>
+      <c r="F218" s="257"/>
     </row>
     <row r="219" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="175" t="s">
@@ -27421,13 +27385,13 @@
       <c r="C219" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D219" s="258" t="n">
+      <c r="D219" s="256" t="n">
         <v>235856003</v>
       </c>
       <c r="E219" s="175" t="s">
         <v>381</v>
       </c>
-      <c r="F219" s="259"/>
+      <c r="F219" s="257"/>
     </row>
     <row r="220" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="175" t="s">
@@ -27445,7 +27409,7 @@
       <c r="E220" s="175" t="s">
         <v>399</v>
       </c>
-      <c r="F220" s="259"/>
+      <c r="F220" s="257"/>
     </row>
     <row r="221" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="175" t="s">
@@ -27463,7 +27427,7 @@
       <c r="E221" s="175" t="s">
         <v>974</v>
       </c>
-      <c r="F221" s="259"/>
+      <c r="F221" s="257"/>
     </row>
     <row r="222" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="175" t="s">
@@ -27475,13 +27439,13 @@
       <c r="C222" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D222" s="258" t="n">
+      <c r="D222" s="256" t="n">
         <v>38341003</v>
       </c>
       <c r="E222" s="175" t="s">
         <v>396</v>
       </c>
-      <c r="F222" s="259"/>
+      <c r="F222" s="257"/>
     </row>
     <row r="223" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="175" t="s">
@@ -27499,7 +27463,7 @@
       <c r="E223" s="175" t="s">
         <v>1010</v>
       </c>
-      <c r="F223" s="259"/>
+      <c r="F223" s="257"/>
     </row>
     <row r="224" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="175" t="s">
@@ -27511,13 +27475,13 @@
       <c r="C224" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D224" s="258" t="s">
+      <c r="D224" s="256" t="s">
         <v>1008</v>
       </c>
       <c r="E224" s="175" t="s">
         <v>1007</v>
       </c>
-      <c r="F224" s="259"/>
+      <c r="F224" s="257"/>
     </row>
     <row r="225" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="175" t="s">
@@ -27535,7 +27499,7 @@
       <c r="E225" s="175" t="s">
         <v>1007</v>
       </c>
-      <c r="F225" s="259"/>
+      <c r="F225" s="257"/>
     </row>
     <row r="226" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="175" t="s">
@@ -27553,7 +27517,7 @@
       <c r="E226" s="175" t="s">
         <v>1383</v>
       </c>
-      <c r="F226" s="259"/>
+      <c r="F226" s="257"/>
     </row>
     <row r="227" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="175" t="s">
@@ -27571,7 +27535,7 @@
       <c r="E227" s="175" t="s">
         <v>1010</v>
       </c>
-      <c r="F227" s="259"/>
+      <c r="F227" s="257"/>
     </row>
     <row r="228" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="175" t="s">
@@ -27583,13 +27547,13 @@
       <c r="C228" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D228" s="258" t="s">
+      <c r="D228" s="256" t="s">
         <v>1009</v>
       </c>
       <c r="E228" s="175" t="s">
         <v>1011</v>
       </c>
-      <c r="F228" s="259"/>
+      <c r="F228" s="257"/>
     </row>
     <row r="229" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="175" t="s">
@@ -27607,7 +27571,7 @@
       <c r="E229" s="175" t="s">
         <v>1011</v>
       </c>
-      <c r="F229" s="259"/>
+      <c r="F229" s="257"/>
     </row>
     <row r="230" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="175" t="s">
@@ -27625,7 +27589,7 @@
       <c r="E230" s="175" t="s">
         <v>1384</v>
       </c>
-      <c r="F230" s="259"/>
+      <c r="F230" s="257"/>
     </row>
     <row r="231" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="175" t="s">
@@ -27637,13 +27601,13 @@
       <c r="C231" s="175" t="s">
         <v>720</v>
       </c>
-      <c r="D231" s="258" t="s">
+      <c r="D231" s="256" t="s">
         <v>787</v>
       </c>
       <c r="E231" s="175" t="s">
         <v>788</v>
       </c>
-      <c r="F231" s="259"/>
+      <c r="F231" s="257"/>
     </row>
     <row r="232" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="175" t="s">
@@ -27661,7 +27625,7 @@
       <c r="E232" s="175" t="s">
         <v>788</v>
       </c>
-      <c r="F232" s="259"/>
+      <c r="F232" s="257"/>
     </row>
     <row r="233" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="175" t="s">
@@ -27679,7 +27643,7 @@
       <c r="E233" s="175" t="s">
         <v>1385</v>
       </c>
-      <c r="F233" s="259"/>
+      <c r="F233" s="257"/>
     </row>
     <row r="234" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="175" t="s">
@@ -27697,7 +27661,7 @@
       <c r="E234" s="175" t="s">
         <v>408</v>
       </c>
-      <c r="F234" s="259"/>
+      <c r="F234" s="257"/>
     </row>
     <row r="235" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="175" t="s">
@@ -27715,7 +27679,7 @@
       <c r="E235" s="175" t="s">
         <v>1387</v>
       </c>
-      <c r="F235" s="259"/>
+      <c r="F235" s="257"/>
     </row>
     <row r="236" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="175" t="s">
@@ -27727,13 +27691,13 @@
       <c r="C236" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D236" s="258" t="n">
+      <c r="D236" s="256" t="n">
         <v>272588001</v>
       </c>
       <c r="E236" s="175" t="s">
         <v>404</v>
       </c>
-      <c r="F236" s="259"/>
+      <c r="F236" s="257"/>
     </row>
     <row r="237" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="175" t="s">
@@ -27751,7 +27715,7 @@
       <c r="E237" s="175" t="s">
         <v>1388</v>
       </c>
-      <c r="F237" s="259"/>
+      <c r="F237" s="257"/>
     </row>
     <row r="238" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="175" t="s">
@@ -27769,7 +27733,7 @@
       <c r="E238" s="175" t="s">
         <v>1015</v>
       </c>
-      <c r="F238" s="259"/>
+      <c r="F238" s="257"/>
     </row>
     <row r="239" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="175" t="s">
@@ -27781,13 +27745,13 @@
       <c r="C239" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D239" s="258" t="s">
+      <c r="D239" s="256" t="s">
         <v>1014</v>
       </c>
       <c r="E239" s="175" t="s">
         <v>1013</v>
       </c>
-      <c r="F239" s="259"/>
+      <c r="F239" s="257"/>
     </row>
     <row r="240" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="175" t="s">
@@ -27805,7 +27769,7 @@
       <c r="E240" s="175" t="s">
         <v>1013</v>
       </c>
-      <c r="F240" s="259"/>
+      <c r="F240" s="257"/>
     </row>
     <row r="241" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="175" t="s">
@@ -27823,7 +27787,7 @@
       <c r="E241" s="175" t="s">
         <v>1389</v>
       </c>
-      <c r="F241" s="259"/>
+      <c r="F241" s="257"/>
     </row>
     <row r="242" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="175" t="s">
@@ -27841,7 +27805,7 @@
       <c r="E242" s="175" t="s">
         <v>1018</v>
       </c>
-      <c r="F242" s="259"/>
+      <c r="F242" s="257"/>
     </row>
     <row r="243" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="175" t="s">
@@ -27853,13 +27817,13 @@
       <c r="C243" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D243" s="258" t="s">
+      <c r="D243" s="256" t="s">
         <v>1017</v>
       </c>
       <c r="E243" s="175" t="s">
         <v>1016</v>
       </c>
-      <c r="F243" s="259"/>
+      <c r="F243" s="257"/>
     </row>
     <row r="244" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="175" t="s">
@@ -27877,7 +27841,7 @@
       <c r="E244" s="175" t="s">
         <v>1016</v>
       </c>
-      <c r="F244" s="259"/>
+      <c r="F244" s="257"/>
     </row>
     <row r="245" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="175" t="s">
@@ -27912,7 +27876,7 @@
       <c r="E246" s="175" t="s">
         <v>1391</v>
       </c>
-      <c r="F246" s="259"/>
+      <c r="F246" s="257"/>
     </row>
     <row r="247" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="175" t="s">
@@ -27924,13 +27888,13 @@
       <c r="C247" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D247" s="258" t="n">
+      <c r="D247" s="256" t="n">
         <v>68962001</v>
       </c>
       <c r="E247" s="175" t="s">
         <v>413</v>
       </c>
-      <c r="F247" s="259"/>
+      <c r="F247" s="257"/>
     </row>
     <row r="248" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="175" t="s">
@@ -27948,7 +27912,7 @@
       <c r="E248" s="175" t="s">
         <v>974</v>
       </c>
-      <c r="F248" s="259"/>
+      <c r="F248" s="257"/>
     </row>
     <row r="249" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="175" t="s">
@@ -27966,7 +27930,7 @@
       <c r="E249" s="175" t="s">
         <v>432</v>
       </c>
-      <c r="F249" s="259"/>
+      <c r="F249" s="257"/>
     </row>
     <row r="250" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="175" t="s">
@@ -27978,13 +27942,13 @@
       <c r="C250" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D250" s="258" t="n">
+      <c r="D250" s="256" t="n">
         <v>386033004</v>
       </c>
       <c r="E250" s="175" t="s">
         <v>428</v>
       </c>
-      <c r="F250" s="259"/>
+      <c r="F250" s="257"/>
     </row>
     <row r="251" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="175" t="s">
@@ -28002,7 +27966,7 @@
       <c r="E251" s="175" t="s">
         <v>974</v>
       </c>
-      <c r="F251" s="259"/>
+      <c r="F251" s="257"/>
     </row>
     <row r="252" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="175" t="s">
@@ -28020,7 +27984,7 @@
       <c r="E252" s="175" t="s">
         <v>440</v>
       </c>
-      <c r="F252" s="259"/>
+      <c r="F252" s="257"/>
     </row>
     <row r="253" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="175" t="s">
@@ -28032,13 +27996,13 @@
       <c r="C253" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D253" s="258" t="n">
+      <c r="D253" s="256" t="n">
         <v>21631000119105</v>
       </c>
       <c r="E253" s="175" t="s">
         <v>437</v>
       </c>
-      <c r="F253" s="259"/>
+      <c r="F253" s="257"/>
     </row>
     <row r="254" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="175" t="s">
@@ -28056,7 +28020,7 @@
       <c r="E254" s="175" t="s">
         <v>446</v>
       </c>
-      <c r="F254" s="259"/>
+      <c r="F254" s="257"/>
     </row>
     <row r="255" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="175" t="s">
@@ -28074,7 +28038,7 @@
       <c r="E255" s="175" t="s">
         <v>448</v>
       </c>
-      <c r="F255" s="259"/>
+      <c r="F255" s="257"/>
     </row>
     <row r="256" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="175" t="s">
@@ -28092,7 +28056,7 @@
       <c r="E256" s="175" t="s">
         <v>1395</v>
       </c>
-      <c r="F256" s="259"/>
+      <c r="F256" s="257"/>
     </row>
     <row r="257" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="175" t="s">
@@ -28104,13 +28068,13 @@
       <c r="C257" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D257" s="258" t="n">
+      <c r="D257" s="256" t="n">
         <v>195231004</v>
       </c>
       <c r="E257" s="175" t="s">
         <v>444</v>
       </c>
-      <c r="F257" s="259"/>
+      <c r="F257" s="257"/>
     </row>
     <row r="258" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="175" t="s">
@@ -28128,7 +28092,7 @@
       <c r="E258" s="175" t="s">
         <v>455</v>
       </c>
-      <c r="F258" s="259"/>
+      <c r="F258" s="257"/>
     </row>
     <row r="259" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="175" t="s">
@@ -28146,7 +28110,7 @@
       <c r="E259" s="175" t="s">
         <v>457</v>
       </c>
-      <c r="F259" s="259"/>
+      <c r="F259" s="257"/>
     </row>
     <row r="260" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="175" t="s">
@@ -28164,7 +28128,7 @@
       <c r="E260" s="175" t="s">
         <v>1397</v>
       </c>
-      <c r="F260" s="259"/>
+      <c r="F260" s="257"/>
     </row>
     <row r="261" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="175" t="s">
@@ -28176,13 +28140,13 @@
       <c r="C261" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D261" s="258" t="n">
+      <c r="D261" s="256" t="n">
         <v>28790007</v>
       </c>
       <c r="E261" s="175" t="s">
         <v>453</v>
       </c>
-      <c r="F261" s="259"/>
+      <c r="F261" s="257"/>
     </row>
     <row r="262" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="175" t="s">
@@ -28200,7 +28164,7 @@
       <c r="E262" s="175" t="s">
         <v>1023</v>
       </c>
-      <c r="F262" s="259"/>
+      <c r="F262" s="257"/>
     </row>
     <row r="263" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="175" t="s">
@@ -28212,13 +28176,13 @@
       <c r="C263" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D263" s="258" t="s">
+      <c r="D263" s="256" t="s">
         <v>1021</v>
       </c>
       <c r="E263" s="175" t="s">
         <v>1022</v>
       </c>
-      <c r="F263" s="259"/>
+      <c r="F263" s="257"/>
     </row>
     <row r="264" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="175" t="s">
@@ -28236,7 +28200,7 @@
       <c r="E264" s="175" t="s">
         <v>1022</v>
       </c>
-      <c r="F264" s="259"/>
+      <c r="F264" s="257"/>
     </row>
     <row r="265" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="175" t="s">
@@ -28254,7 +28218,7 @@
       <c r="E265" s="175" t="s">
         <v>1398</v>
       </c>
-      <c r="F265" s="259"/>
+      <c r="F265" s="257"/>
     </row>
     <row r="266" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="175" t="s">
@@ -28272,7 +28236,7 @@
       <c r="E266" s="175" t="s">
         <v>464</v>
       </c>
-      <c r="F266" s="259"/>
+      <c r="F266" s="257"/>
     </row>
     <row r="267" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="175" t="s">
@@ -28290,7 +28254,7 @@
       <c r="E267" s="175" t="s">
         <v>466</v>
       </c>
-      <c r="F267" s="259"/>
+      <c r="F267" s="257"/>
     </row>
     <row r="268" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="175" t="s">
@@ -28308,7 +28272,7 @@
       <c r="E268" s="175" t="s">
         <v>1400</v>
       </c>
-      <c r="F268" s="259"/>
+      <c r="F268" s="257"/>
     </row>
     <row r="269" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="175" t="s">
@@ -28320,13 +28284,13 @@
       <c r="C269" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D269" s="258" t="n">
+      <c r="D269" s="256" t="n">
         <v>413439005</v>
       </c>
       <c r="E269" s="175" t="s">
         <v>462</v>
       </c>
-      <c r="F269" s="259"/>
+      <c r="F269" s="257"/>
     </row>
     <row r="270" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="175" t="s">
@@ -28344,7 +28308,7 @@
       <c r="E270" s="175" t="s">
         <v>1026</v>
       </c>
-      <c r="F270" s="259"/>
+      <c r="F270" s="257"/>
     </row>
     <row r="271" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="175" t="s">
@@ -28356,13 +28320,13 @@
       <c r="C271" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D271" s="258" t="s">
+      <c r="D271" s="256" t="s">
         <v>1025</v>
       </c>
       <c r="E271" s="175" t="s">
         <v>1024</v>
       </c>
-      <c r="F271" s="259"/>
+      <c r="F271" s="257"/>
     </row>
     <row r="272" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="175" t="s">
@@ -28380,7 +28344,7 @@
       <c r="E272" s="175" t="s">
         <v>1024</v>
       </c>
-      <c r="F272" s="259"/>
+      <c r="F272" s="257"/>
     </row>
     <row r="273" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="175" t="s">
@@ -28398,7 +28362,7 @@
       <c r="E273" s="175" t="s">
         <v>1401</v>
       </c>
-      <c r="F273" s="259"/>
+      <c r="F273" s="257"/>
     </row>
     <row r="274" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="175" t="s">
@@ -28416,7 +28380,7 @@
       <c r="E274" s="175" t="s">
         <v>1389</v>
       </c>
-      <c r="F274" s="259"/>
+      <c r="F274" s="257"/>
     </row>
     <row r="275" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="175" t="s">
@@ -28434,7 +28398,7 @@
       <c r="E275" s="175" t="s">
         <v>1033</v>
       </c>
-      <c r="F275" s="259"/>
+      <c r="F275" s="257"/>
     </row>
     <row r="276" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="175" t="s">
@@ -28446,13 +28410,13 @@
       <c r="C276" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D276" s="258" t="s">
+      <c r="D276" s="256" t="s">
         <v>1032</v>
       </c>
       <c r="E276" s="175" t="s">
         <v>1031</v>
       </c>
-      <c r="F276" s="259"/>
+      <c r="F276" s="257"/>
     </row>
     <row r="277" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="175" t="s">
@@ -28470,7 +28434,7 @@
       <c r="E277" s="175" t="s">
         <v>1031</v>
       </c>
-      <c r="F277" s="259"/>
+      <c r="F277" s="257"/>
     </row>
     <row r="278" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="175" t="s">
@@ -28488,7 +28452,7 @@
       <c r="E278" s="175" t="s">
         <v>1402</v>
       </c>
-      <c r="F278" s="259"/>
+      <c r="F278" s="257"/>
     </row>
     <row r="279" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="175" t="s">
@@ -28506,7 +28470,7 @@
       <c r="E279" s="175" t="s">
         <v>1036</v>
       </c>
-      <c r="F279" s="259"/>
+      <c r="F279" s="257"/>
     </row>
     <row r="280" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="175" t="s">
@@ -28518,13 +28482,13 @@
       <c r="C280" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D280" s="258" t="s">
+      <c r="D280" s="256" t="s">
         <v>1035</v>
       </c>
       <c r="E280" s="175" t="s">
         <v>1034</v>
       </c>
-      <c r="F280" s="259"/>
+      <c r="F280" s="257"/>
     </row>
     <row r="281" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="175" t="s">
@@ -28542,7 +28506,7 @@
       <c r="E281" s="175" t="s">
         <v>1034</v>
       </c>
-      <c r="F281" s="259"/>
+      <c r="F281" s="257"/>
     </row>
     <row r="282" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="175" t="s">
@@ -28560,7 +28524,7 @@
       <c r="E282" s="175" t="s">
         <v>1403</v>
       </c>
-      <c r="F282" s="259"/>
+      <c r="F282" s="257"/>
     </row>
     <row r="283" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="175" t="s">
@@ -28578,7 +28542,7 @@
       <c r="E283" s="175" t="s">
         <v>1296</v>
       </c>
-      <c r="F283" s="259"/>
+      <c r="F283" s="257"/>
     </row>
     <row r="284" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="175" t="s">
@@ -28596,7 +28560,7 @@
       <c r="E284" s="175" t="s">
         <v>1040</v>
       </c>
-      <c r="F284" s="259"/>
+      <c r="F284" s="257"/>
     </row>
     <row r="285" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="175" t="s">
@@ -28608,13 +28572,13 @@
       <c r="C285" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D285" s="258" t="s">
+      <c r="D285" s="256" t="s">
         <v>1038</v>
       </c>
       <c r="E285" s="175" t="s">
         <v>1037</v>
       </c>
-      <c r="F285" s="259"/>
+      <c r="F285" s="257"/>
     </row>
     <row r="286" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="175" t="s">
@@ -28632,7 +28596,7 @@
       <c r="E286" s="175" t="s">
         <v>1037</v>
       </c>
-      <c r="F286" s="259"/>
+      <c r="F286" s="257"/>
     </row>
     <row r="287" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="175" t="s">
@@ -28650,7 +28614,7 @@
       <c r="E287" s="175" t="s">
         <v>1405</v>
       </c>
-      <c r="F287" s="259"/>
+      <c r="F287" s="257"/>
     </row>
     <row r="288" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="175" t="s">
@@ -28668,7 +28632,7 @@
       <c r="E288" s="175" t="s">
         <v>490</v>
       </c>
-      <c r="F288" s="259"/>
+      <c r="F288" s="257"/>
     </row>
     <row r="289" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="175" t="s">
@@ -28686,7 +28650,7 @@
       <c r="E289" s="175" t="s">
         <v>484</v>
       </c>
-      <c r="F289" s="259"/>
+      <c r="F289" s="257"/>
     </row>
     <row r="290" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="175" t="s">
@@ -28698,13 +28662,13 @@
       <c r="C290" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D290" s="258" t="n">
+      <c r="D290" s="256" t="n">
         <v>69896004</v>
       </c>
       <c r="E290" s="175" t="s">
         <v>486</v>
       </c>
-      <c r="F290" s="259"/>
+      <c r="F290" s="257"/>
     </row>
     <row r="291" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="175" t="s">
@@ -28722,7 +28686,7 @@
       <c r="E291" s="175" t="s">
         <v>974</v>
       </c>
-      <c r="F291" s="259"/>
+      <c r="F291" s="257"/>
     </row>
     <row r="292" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="175" t="s">
@@ -28740,7 +28704,7 @@
       <c r="E292" s="175" t="s">
         <v>498</v>
       </c>
-      <c r="F292" s="259"/>
+      <c r="F292" s="257"/>
     </row>
     <row r="293" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="175" t="s">
@@ -28752,13 +28716,13 @@
       <c r="C293" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D293" s="258" t="n">
+      <c r="D293" s="256" t="n">
         <v>69322001</v>
       </c>
       <c r="E293" s="175" t="s">
         <v>494</v>
       </c>
-      <c r="F293" s="259"/>
+      <c r="F293" s="257"/>
     </row>
     <row r="294" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="175" t="s">
@@ -28776,7 +28740,7 @@
       <c r="E294" s="175" t="s">
         <v>1044</v>
       </c>
-      <c r="F294" s="259"/>
+      <c r="F294" s="257"/>
     </row>
     <row r="295" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="175" t="s">
@@ -28788,13 +28752,13 @@
       <c r="C295" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D295" s="258" t="s">
+      <c r="D295" s="256" t="s">
         <v>1043</v>
       </c>
       <c r="E295" s="175" t="s">
         <v>1042</v>
       </c>
-      <c r="F295" s="259"/>
+      <c r="F295" s="257"/>
     </row>
     <row r="296" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="175" t="s">
@@ -28812,7 +28776,7 @@
       <c r="E296" s="175" t="s">
         <v>1042</v>
       </c>
-      <c r="F296" s="259"/>
+      <c r="F296" s="257"/>
     </row>
     <row r="297" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="175" t="s">
@@ -28830,7 +28794,7 @@
       <c r="E297" s="175" t="s">
         <v>1406</v>
       </c>
-      <c r="F297" s="259"/>
+      <c r="F297" s="257"/>
     </row>
     <row r="298" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="175" t="s">
@@ -28842,13 +28806,13 @@
       <c r="C298" s="175" t="s">
         <v>720</v>
       </c>
-      <c r="D298" s="258" t="s">
+      <c r="D298" s="256" t="s">
         <v>795</v>
       </c>
       <c r="E298" s="175" t="s">
         <v>796</v>
       </c>
-      <c r="F298" s="259"/>
+      <c r="F298" s="257"/>
     </row>
     <row r="299" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="175" t="s">
@@ -28866,7 +28830,7 @@
       <c r="E299" s="175" t="s">
         <v>796</v>
       </c>
-      <c r="F299" s="259"/>
+      <c r="F299" s="257"/>
     </row>
     <row r="300" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="175" t="s">
@@ -28884,7 +28848,7 @@
       <c r="E300" s="175" t="s">
         <v>1407</v>
       </c>
-      <c r="F300" s="259"/>
+      <c r="F300" s="257"/>
     </row>
     <row r="301" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="175" t="s">
@@ -28896,13 +28860,13 @@
       <c r="C301" s="175" t="s">
         <v>720</v>
       </c>
-      <c r="D301" s="258" t="s">
+      <c r="D301" s="256" t="s">
         <v>803</v>
       </c>
       <c r="E301" s="175" t="s">
         <v>804</v>
       </c>
-      <c r="F301" s="259"/>
+      <c r="F301" s="257"/>
     </row>
     <row r="302" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="175" t="s">
@@ -28920,7 +28884,7 @@
       <c r="E302" s="175" t="s">
         <v>804</v>
       </c>
-      <c r="F302" s="259"/>
+      <c r="F302" s="257"/>
     </row>
     <row r="303" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="175" t="s">
@@ -28938,7 +28902,7 @@
       <c r="E303" s="175" t="s">
         <v>507</v>
       </c>
-      <c r="F303" s="259"/>
+      <c r="F303" s="257"/>
     </row>
     <row r="304" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="175" t="s">
@@ -28956,7 +28920,7 @@
       <c r="E304" s="175" t="s">
         <v>1409</v>
       </c>
-      <c r="F304" s="259"/>
+      <c r="F304" s="257"/>
     </row>
     <row r="305" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="175" t="s">
@@ -28968,13 +28932,13 @@
       <c r="C305" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D305" s="258" t="n">
+      <c r="D305" s="256" t="n">
         <v>105592009</v>
       </c>
       <c r="E305" s="175" t="s">
         <v>503</v>
       </c>
-      <c r="F305" s="259"/>
+      <c r="F305" s="257"/>
     </row>
     <row r="306" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="175" t="s">
@@ -28992,7 +28956,7 @@
       <c r="E306" s="175" t="s">
         <v>512</v>
       </c>
-      <c r="F306" s="259"/>
+      <c r="F306" s="257"/>
     </row>
     <row r="307" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="175" t="s">
@@ -29010,7 +28974,7 @@
       <c r="E307" s="175" t="s">
         <v>520</v>
       </c>
-      <c r="F307" s="259"/>
+      <c r="F307" s="257"/>
     </row>
     <row r="308" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="175" t="s">
@@ -29028,7 +28992,7 @@
       <c r="E308" s="175" t="s">
         <v>528</v>
       </c>
-      <c r="F308" s="259"/>
+      <c r="F308" s="257"/>
     </row>
     <row r="309" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="175" t="s">
@@ -29046,7 +29010,7 @@
       <c r="E309" s="175" t="s">
         <v>1411</v>
       </c>
-      <c r="F309" s="259"/>
+      <c r="F309" s="257"/>
     </row>
     <row r="310" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="175" t="s">
@@ -29058,13 +29022,13 @@
       <c r="C310" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D310" s="258" t="n">
+      <c r="D310" s="256" t="n">
         <v>57054005</v>
       </c>
       <c r="E310" s="175" t="s">
         <v>511</v>
       </c>
-      <c r="F310" s="259"/>
+      <c r="F310" s="257"/>
     </row>
     <row r="311" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="175" t="s">
@@ -29082,7 +29046,7 @@
       <c r="E311" s="175" t="s">
         <v>1411</v>
       </c>
-      <c r="F311" s="259"/>
+      <c r="F311" s="257"/>
     </row>
     <row r="312" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="175" t="s">
@@ -29100,7 +29064,7 @@
       <c r="E312" s="175" t="s">
         <v>535</v>
       </c>
-      <c r="F312" s="259"/>
+      <c r="F312" s="257"/>
     </row>
     <row r="313" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="175" t="s">
@@ -29118,7 +29082,7 @@
       <c r="E313" s="175" t="s">
         <v>536</v>
       </c>
-      <c r="F313" s="259"/>
+      <c r="F313" s="257"/>
     </row>
     <row r="314" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="175" t="s">
@@ -29130,13 +29094,13 @@
       <c r="C314" s="175" t="s">
         <v>1329</v>
       </c>
-      <c r="D314" s="258" t="s">
+      <c r="D314" s="256" t="s">
         <v>534</v>
       </c>
       <c r="E314" s="175" t="s">
         <v>531</v>
       </c>
-      <c r="F314" s="259"/>
+      <c r="F314" s="257"/>
     </row>
     <row r="315" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="175" t="s">
@@ -29154,7 +29118,7 @@
       <c r="E315" s="175" t="s">
         <v>1047</v>
       </c>
-      <c r="F315" s="259"/>
+      <c r="F315" s="257"/>
     </row>
     <row r="316" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="175" t="s">
@@ -29166,13 +29130,13 @@
       <c r="C316" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D316" s="258" t="s">
+      <c r="D316" s="256" t="s">
         <v>1046</v>
       </c>
       <c r="E316" s="175" t="s">
         <v>1045</v>
       </c>
-      <c r="F316" s="259"/>
+      <c r="F316" s="257"/>
     </row>
     <row r="317" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="175" t="s">
@@ -29190,7 +29154,7 @@
       <c r="E317" s="175" t="s">
         <v>1045</v>
       </c>
-      <c r="F317" s="259"/>
+      <c r="F317" s="257"/>
     </row>
     <row r="318" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="175" t="s">
@@ -29208,7 +29172,7 @@
       <c r="E318" s="175" t="s">
         <v>1412</v>
       </c>
-      <c r="F318" s="259"/>
+      <c r="F318" s="257"/>
     </row>
     <row r="319" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="175" t="s">
@@ -29226,7 +29190,7 @@
       <c r="E319" s="175" t="s">
         <v>974</v>
       </c>
-      <c r="F319" s="259"/>
+      <c r="F319" s="257"/>
     </row>
     <row r="320" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="175" t="s">
@@ -29244,7 +29208,7 @@
       <c r="E320" s="175" t="s">
         <v>543</v>
       </c>
-      <c r="F320" s="259"/>
+      <c r="F320" s="257"/>
     </row>
     <row r="321" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="175" t="s">
@@ -29256,13 +29220,13 @@
       <c r="C321" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D321" s="258" t="n">
+      <c r="D321" s="256" t="n">
         <v>431956005</v>
       </c>
       <c r="E321" s="175" t="s">
         <v>540</v>
       </c>
-      <c r="F321" s="259"/>
+      <c r="F321" s="257"/>
     </row>
     <row r="322" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="175" t="s">
@@ -29274,13 +29238,13 @@
       <c r="C322" s="175" t="s">
         <v>720</v>
       </c>
-      <c r="D322" s="258" t="s">
+      <c r="D322" s="256" t="s">
         <v>809</v>
       </c>
       <c r="E322" s="175" t="s">
         <v>810</v>
       </c>
-      <c r="F322" s="259"/>
+      <c r="F322" s="257"/>
     </row>
     <row r="323" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="175" t="s">
@@ -29298,7 +29262,7 @@
       <c r="E323" s="175" t="s">
         <v>810</v>
       </c>
-      <c r="F323" s="259"/>
+      <c r="F323" s="257"/>
     </row>
     <row r="324" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="175" t="s">
@@ -29316,7 +29280,7 @@
       <c r="E324" s="175" t="s">
         <v>1413</v>
       </c>
-      <c r="F324" s="259"/>
+      <c r="F324" s="257"/>
     </row>
     <row r="325" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="175" t="s">
@@ -29334,7 +29298,7 @@
       <c r="E325" s="175" t="s">
         <v>566</v>
       </c>
-      <c r="F325" s="259"/>
+      <c r="F325" s="257"/>
     </row>
     <row r="326" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="175" t="s">
@@ -29352,7 +29316,7 @@
       <c r="E326" s="175" t="s">
         <v>562</v>
       </c>
-      <c r="F326" s="259"/>
+      <c r="F326" s="257"/>
     </row>
     <row r="327" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="175" t="s">
@@ -29364,13 +29328,13 @@
       <c r="C327" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D327" s="258" t="n">
+      <c r="D327" s="256" t="n">
         <v>46635009</v>
       </c>
       <c r="E327" s="175" t="s">
         <v>562</v>
       </c>
-      <c r="F327" s="259"/>
+      <c r="F327" s="257"/>
     </row>
     <row r="328" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="175" t="s">
@@ -29388,7 +29352,7 @@
       <c r="E328" s="175" t="s">
         <v>575</v>
       </c>
-      <c r="F328" s="259"/>
+      <c r="F328" s="257"/>
     </row>
     <row r="329" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="175" t="s">
@@ -29406,7 +29370,7 @@
       <c r="E329" s="175" t="s">
         <v>571</v>
       </c>
-      <c r="F329" s="259"/>
+      <c r="F329" s="257"/>
     </row>
     <row r="330" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="175" t="s">
@@ -29418,13 +29382,13 @@
       <c r="C330" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D330" s="258" t="n">
+      <c r="D330" s="256" t="n">
         <v>44054006</v>
       </c>
       <c r="E330" s="175" t="s">
         <v>571</v>
       </c>
-      <c r="F330" s="259"/>
+      <c r="F330" s="257"/>
     </row>
     <row r="331" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="175" t="s">
@@ -29442,7 +29406,7 @@
       <c r="E331" s="175" t="s">
         <v>974</v>
       </c>
-      <c r="F331" s="259"/>
+      <c r="F331" s="257"/>
     </row>
     <row r="332" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="175" t="s">
@@ -29460,7 +29424,7 @@
       <c r="E332" s="175" t="s">
         <v>583</v>
       </c>
-      <c r="F332" s="259"/>
+      <c r="F332" s="257"/>
     </row>
     <row r="333" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="175" t="s">
@@ -29472,13 +29436,13 @@
       <c r="C333" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D333" s="258" t="n">
+      <c r="D333" s="256" t="n">
         <v>110171000119107</v>
       </c>
       <c r="E333" s="175" t="s">
         <v>1414</v>
       </c>
-      <c r="F333" s="259"/>
+      <c r="F333" s="257"/>
     </row>
     <row r="334" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="175" t="s">
@@ -29496,7 +29460,7 @@
       <c r="E334" s="175" t="s">
         <v>1051</v>
       </c>
-      <c r="F334" s="259"/>
+      <c r="F334" s="257"/>
     </row>
     <row r="335" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="175" t="s">
@@ -29508,13 +29472,13 @@
       <c r="C335" s="175" t="s">
         <v>950</v>
       </c>
-      <c r="D335" s="258" t="s">
+      <c r="D335" s="256" t="s">
         <v>1049</v>
       </c>
       <c r="E335" s="175" t="s">
         <v>1415</v>
       </c>
-      <c r="F335" s="259"/>
+      <c r="F335" s="257"/>
     </row>
     <row r="336" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="175" t="s">
@@ -29532,7 +29496,7 @@
       <c r="E336" s="175" t="s">
         <v>1415</v>
       </c>
-      <c r="F336" s="259"/>
+      <c r="F336" s="257"/>
     </row>
     <row r="337" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="175" t="s">
@@ -29550,7 +29514,7 @@
       <c r="E337" s="175" t="s">
         <v>1416</v>
       </c>
-      <c r="F337" s="259"/>
+      <c r="F337" s="257"/>
     </row>
     <row r="338" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="175" t="s">
@@ -29568,7 +29532,7 @@
       <c r="E338" s="175" t="s">
         <v>592</v>
       </c>
-      <c r="F338" s="259"/>
+      <c r="F338" s="257"/>
     </row>
     <row r="339" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="175" t="s">
@@ -29586,7 +29550,7 @@
       <c r="E339" s="175" t="s">
         <v>1419</v>
       </c>
-      <c r="F339" s="259"/>
+      <c r="F339" s="257"/>
     </row>
     <row r="340" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="175" t="s">
@@ -29598,13 +29562,13 @@
       <c r="C340" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D340" s="258" t="n">
+      <c r="D340" s="256" t="n">
         <v>49650001</v>
       </c>
       <c r="E340" s="175" t="s">
         <v>588</v>
       </c>
-      <c r="F340" s="259"/>
+      <c r="F340" s="257"/>
     </row>
     <row r="341" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="175" t="s">
@@ -29622,7 +29586,7 @@
       <c r="E341" s="175" t="s">
         <v>601</v>
       </c>
-      <c r="F341" s="259"/>
+      <c r="F341" s="257"/>
     </row>
     <row r="342" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="175" t="s">
@@ -29640,7 +29604,7 @@
       <c r="E342" s="175" t="s">
         <v>1422</v>
       </c>
-      <c r="F342" s="259"/>
+      <c r="F342" s="257"/>
     </row>
     <row r="343" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="175" t="s">
@@ -29652,13 +29616,13 @@
       <c r="C343" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D343" s="258" t="n">
+      <c r="D343" s="256" t="n">
         <v>267060006</v>
       </c>
       <c r="E343" s="175" t="s">
         <v>598</v>
       </c>
-      <c r="F343" s="259"/>
+      <c r="F343" s="257"/>
     </row>
     <row r="344" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="175" t="s">
@@ -29676,7 +29640,7 @@
       <c r="E344" s="175" t="s">
         <v>610</v>
       </c>
-      <c r="F344" s="259"/>
+      <c r="F344" s="257"/>
     </row>
     <row r="345" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="175" t="s">
@@ -29694,7 +29658,7 @@
       <c r="E345" s="175" t="s">
         <v>1424</v>
       </c>
-      <c r="F345" s="259"/>
+      <c r="F345" s="257"/>
     </row>
     <row r="346" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="175" t="s">
@@ -29706,13 +29670,13 @@
       <c r="C346" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D346" s="258" t="n">
+      <c r="D346" s="256" t="n">
         <v>197941005</v>
       </c>
       <c r="E346" s="175" t="s">
         <v>606</v>
       </c>
-      <c r="F346" s="259"/>
+      <c r="F346" s="257"/>
     </row>
     <row r="347" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="175" t="s">
@@ -29724,13 +29688,13 @@
       <c r="C347" s="175" t="s">
         <v>720</v>
       </c>
-      <c r="D347" s="258" t="s">
+      <c r="D347" s="256" t="s">
         <v>816</v>
       </c>
       <c r="E347" s="175" t="s">
         <v>817</v>
       </c>
-      <c r="F347" s="259"/>
+      <c r="F347" s="257"/>
     </row>
     <row r="348" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="175" t="s">
@@ -29748,7 +29712,7 @@
       <c r="E348" s="175" t="s">
         <v>817</v>
       </c>
-      <c r="F348" s="259"/>
+      <c r="F348" s="257"/>
     </row>
     <row r="349" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="175" t="s">
